--- a/RELATORIO_VENDAS.xlsx
+++ b/RELATORIO_VENDAS.xlsx
@@ -1213,7 +1213,7 @@
   <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -1260,38 +1260,26 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4.4</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>VK-8013</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Alicate de Corte meia cana cabo borracha corta arame fio</t>
-        </is>
-      </c>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
       <c r="D5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>VK-8013</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Alicate de Corte meia cana cabo borracha corta arame fio</t>
-        </is>
-      </c>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
       <c r="D6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="inlineStr"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
           <t>Chave de Fenda e Philips Imantadas Kit Jogo com 6 peças</t>
@@ -1299,7 +1287,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1304,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>54</t>
         </is>
       </c>
     </row>

--- a/RELATORIO_VENDAS.xlsx
+++ b/RELATORIO_VENDAS.xlsx
@@ -537,7 +537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E13"/>
+  <dimension ref="B1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -732,6 +732,287 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BAR-315004-8</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Jogo De Tarraxas Macho Para Abrir Roscas C/ 8 Peças M3 A M12 Resistente</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HR150A</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Estojo Material Escolar Maleta 48/68/86/150/208 Peças Completo Pequeno Grande Super Grande</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Kit 12 a 72 Ovos Falsos De Plástico Serve Para ajudar aumentar produção Brinquedo Real</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Chave de Fenda e Philips Imantadas Kit Jogo com 6 peças</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>VK-8014</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Alicate De Corte Diagonal 6 Pol. 150mm Corte Cabo Fio Arame</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ALS-2300--Azul-4 UNIDADES</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Leque Dobrável com Decoração Florida para Abanar</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>VK-3472</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Jogo de Chave Torx Curta 9 Peças Aço Cromo Vanadium T10 A T50 Pequena</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>VK-8013</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Alicate de Corte meia cana cabo borracha corta arame fio</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Mini Martelo Martelinho Linha Premium Profissional Aço Cromado</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>9032143118</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Kit 12 Ovos Falsos De Plástico De Mentira Para Indez Galinha Brinquedo</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>23592934352-Marrom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Chapéu Panama Fedora Estilo Malandro Pagodeiro</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Kit 12 Ovos Falsos De Plástico Serve Para Indez Galinha com Cor Real</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>HR208A</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Maleta/Estojo De Pintura Infantil de 208 Peças com Paleta Lousa para Desenhar</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Martelo Unha Profissional 32cm + Mini Martelo 16cm Com Cabo Emborrachado e Fibra Portátil</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>HR68C</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Estojo De Pintura Com 68 Peças Para Meninas E Meninos Com Aquarela Kit Escolar 68 Peças Estojo Maleta Pintura Desenhar Acompanha Desenho</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1115</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Escova De Aço Multiuso Kit com 3 pçs Cobre Nylon Aço Inoxidável Ferramentas De Limpeza Manual</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>VK-3474</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Jogo de Chave Torx Curta 9 Peças Aço Cromo Vanadium T10 A T50 Grande</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>BAR-314016-6</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Serrote Varios Tamanho 16 18 20 Polegadas de Excelência em Corte Cabo Madeira</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D2"/>

--- a/RELATORIO_VENDAS.xlsx
+++ b/RELATORIO_VENDAS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="VENDAS" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -38,14 +38,6 @@
       <family val="2"/>
       <color theme="1"/>
       <sz val="14"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -69,10 +61,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -457,33 +448,34 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:H6"/>
+  <dimension ref="B1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="11.42578125" customWidth="1" style="6" min="1" max="1"/>
-    <col width="17.7109375" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="17.7109375" customWidth="1" style="6" min="3" max="3"/>
-    <col width="21.28515625" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
-    <col width="33.5703125" customWidth="1" style="6" min="6" max="6"/>
-    <col width="29.7109375" customWidth="1" style="6" min="7" max="7"/>
-    <col width="17.5703125" customWidth="1" style="6" min="8" max="8"/>
+    <col width="11.44140625" customWidth="1" style="5" min="1" max="1"/>
+    <col width="17.6640625" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="17.6640625" customWidth="1" style="5" min="3" max="3"/>
+    <col width="19" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="21.33203125" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="21" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="33.5546875" customWidth="1" style="5" min="7" max="7"/>
+    <col width="29.6640625" customWidth="1" style="5" min="8" max="8"/>
+    <col width="17.5546875" customWidth="1" style="5" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>RELATORIO DE VENDAS DA SHOPEE MENSAL</t>
         </is>
       </c>
     </row>
     <row r="2"/>
-    <row r="3" ht="18.75" customHeight="1" s="6">
+    <row r="3" ht="18.75" customHeight="1" s="5">
       <c r="B3" s="1" t="inlineStr">
         <is>
           <t>ID DO PEDIDO</t>
@@ -496,36 +488,223 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
+          <t>NOME PRODUTO</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
           <t>DATA DO PEDIDO</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>VALOR PRODUTO</t>
-        </is>
-      </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
+          <t>VALOR PEDIDO</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
           <t>VALOR PAGO PLATAFORMA</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>CUSTO DO PRODUTO</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>LUCRO FINAL</t>
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>240902VBQMGWTV</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1(BAR-91408-55) + 2 (ID-4864E)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Kit 3 Conjuntos de Escovas de Aço Multiuso Kit 9 Peças - Material Aço - Latão - Nylon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2024-09-02 08:11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>240907A1QGE0JR</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>VK-8375</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Jogo De Macho Para Fazer Rosca 8 Peças Profissional Promoção</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2024-09-06 15:11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>44.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>14.930000000000001</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="D6" s="2" t="n"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2409044HBDT96A</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BAR-57952-53</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Nível Régua 3 Bolhas 40cm/50cm Profissional ABS De Prumo Medição Nivelador Pronta Entrega</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2024-09-04 10:34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>240907A499B02E</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ID-7538C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Protetor Solar Parabrisas Quebra Sol Para Painel De Carro Ventosa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2024-09-06 15:57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>240907AHNT63PW</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>VK-3473 + 68399-11</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Kit Chave Torx + Kit Allen 18 Peças Aço Cromo Vanadium</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2024-09-06 19:56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="B1:I2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
@@ -537,28 +716,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E38"/>
+  <dimension ref="B1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="9.5703125" customWidth="1" style="6" min="2" max="2"/>
-    <col width="52.28515625" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
-    <col width="10.5703125" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
+    <col width="9.5546875" customWidth="1" style="5" min="2" max="2"/>
+    <col width="52.33203125" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="10.5546875" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>VALORES DE PRODUTOS</t>
         </is>
       </c>
     </row>
     <row r="2"/>
-    <row r="3" ht="18.75" customHeight="1" s="6">
+    <row r="3" ht="18.75" customHeight="1" s="5">
       <c r="B3" s="1" t="inlineStr">
         <is>
           <t>SKU</t>
@@ -569,7 +748,7 @@
           <t>PRODUTO</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>CUSTO</t>
         </is>
@@ -588,10 +767,9 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>&amp; "c:/Users/PC FEIRAO 03/Documents/BUGO/.venv/Scripts/python.exe" "c:/Users/PC FEIRAO 03/Documents/BUGO/main/main2.py"</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n"/>
+          <t>2.2</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
@@ -606,10 +784,9 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n"/>
+          <t>17</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
@@ -624,10 +801,9 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n"/>
+          <t>18</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
@@ -642,10 +818,9 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n"/>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
@@ -660,356 +835,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ID-4556B</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>BORRIFADOR 400ML MULTIÚSO IDEA CABELEIREIRO SALÃO ESTILOSO</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="n"/>
-    </row>
-    <row r="10">
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Ferro De Solda 100w 110V/220v Eletrico Com Suporte Proficional</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="n"/>
-    </row>
-    <row r="11">
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Kit 24 Ovos Falsos De Plástico Serve Para ajudar aumentar produção</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Chapéu Country Cowboy Americano Modelo Clássico Em Feltro Marrom Preto Palha</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Kit 3 Alicates Bijuterias de 4,5 polegadas Pequeno fazer terço</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>BAR-315004-8</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Jogo De Tarraxas Macho Para Abrir Roscas C/ 8 Peças M3 A M12 Resistente</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>HR150A</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Estojo Material Escolar Maleta 48/68/86/150/208 Peças Completo Pequeno Grande Super Grande</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Kit 12 a 72 Ovos Falsos De Plástico Serve Para ajudar aumentar produção Brinquedo Real</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Chave de Fenda e Philips Imantadas Kit Jogo com 6 peças</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>VK-8014</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Alicate De Corte Diagonal 6 Pol. 150mm Corte Cabo Fio Arame</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>ALS-2300--Azul-4 UNIDADES</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Leque Dobrável com Decoração Florida para Abanar</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>VK-3472</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Jogo de Chave Torx Curta 9 Peças Aço Cromo Vanadium T10 A T50 Pequena</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>VK-8013</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Alicate de Corte meia cana cabo borracha corta arame fio</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Mini Martelo Martelinho Linha Premium Profissional Aço Cromado</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>9032143118</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Kit 12 Ovos Falsos De Plástico De Mentira Para Indez Galinha Brinquedo</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>583</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>23592934352-Marrom</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Chapéu Panama Fedora Estilo Malandro Pagodeiro</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Kit 12 Ovos Falsos De Plástico Serve Para Indez Galinha com Cor Real</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>HR208A</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Maleta/Estojo De Pintura Infantil de 208 Peças com Paleta Lousa para Desenhar</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Martelo Unha Profissional 32cm + Mini Martelo 16cm Com Cabo Emborrachado e Fibra Portátil</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>HR68C</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Estojo De Pintura Com 68 Peças Para Meninas E Meninos Com Aquarela Kit Escolar 68 Peças Estojo Maleta Pintura Desenhar Acompanha Desenho</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>1115</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Escova De Aço Multiuso Kit com 3 pçs Cobre Nylon Aço Inoxidável Ferramentas De Limpeza Manual</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>VK-3474</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Jogo de Chave Torx Curta 9 Peças Aço Cromo Vanadium T10 A T50 Grande</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>BAR-314016-6</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Serrote Varios Tamanho 16 18 20 Polegadas de Excelência em Corte Cabo Madeira</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>4</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -1018,5 +844,6 @@
     <mergeCell ref="B1:D2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/RELATORIO_VENDAS.xlsx
+++ b/RELATORIO_VENDAS.xlsx
@@ -1,151 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
-  <sheets>
-    <sheet name="VENDAS" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="PRUDUTOS" sheetId="2" state="visible" r:id="rId2"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
-</workbook>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="3">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="20"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="14"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-</styleSheet>
-</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
@@ -448,70 +300,88 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:I8"/>
+  <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11.44140625" customWidth="1" style="5" min="1" max="1"/>
-    <col width="17.6640625" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="17.6640625" customWidth="1" style="5" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="21.33203125" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
-    <col width="33.5546875" customWidth="1" style="5" min="7" max="7"/>
-    <col width="29.6640625" customWidth="1" style="5" min="8" max="8"/>
-    <col width="17.5546875" customWidth="1" style="5" min="9" max="9"/>
+    <col width="11.42578125" customWidth="1" style="15" min="1" max="1"/>
+    <col width="21.42578125" bestFit="1" customWidth="1" style="11" min="2" max="2"/>
+    <col width="32.5703125" customWidth="1" style="11" min="3" max="3"/>
+    <col width="143.85546875" bestFit="1" customWidth="1" style="12" min="4" max="4"/>
+    <col width="37.28515625" bestFit="1" customWidth="1" style="11" min="5" max="5"/>
+    <col width="16.7109375" bestFit="1" customWidth="1" style="13" min="6" max="6"/>
+    <col width="30.7109375" customWidth="1" style="13" min="7" max="7"/>
+    <col width="21.28515625" bestFit="1" customWidth="1" style="13" min="8" max="8"/>
+    <col width="18.5703125" bestFit="1" customWidth="1" style="13" min="9" max="9"/>
+    <col width="39.5703125" bestFit="1" customWidth="1" style="13" min="10" max="10"/>
+    <col width="25.28515625" bestFit="1" customWidth="1" style="13" min="11" max="11"/>
+    <col width="16.140625" bestFit="1" customWidth="1" style="13" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>RELATORIO DE VENDAS DA SHOPEE MENSAL</t>
         </is>
       </c>
     </row>
     <row r="2"/>
-    <row r="3" ht="18.75" customHeight="1" s="5">
-      <c r="B3" s="1" t="inlineStr">
+    <row r="3" ht="18.75" customFormat="1" customHeight="1" s="13">
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>ID DO PEDIDO</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="7" t="inlineStr">
         <is>
           <t>SKU PRODUTO</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="7" t="inlineStr">
         <is>
           <t>NOME PRODUTO</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>VARIAÇÃO</t>
+        </is>
+      </c>
+      <c r="F3" s="7" t="inlineStr">
+        <is>
+          <t>QUANTIDADE</t>
+        </is>
+      </c>
+      <c r="G3" s="7" t="inlineStr">
+        <is>
+          <t>ESTADO DO COMPRADOR</t>
+        </is>
+      </c>
+      <c r="H3" s="7" t="inlineStr">
         <is>
           <t>DATA DO PEDIDO</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="I3" s="7" t="inlineStr">
         <is>
           <t>VALOR PEDIDO</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>VALOR PAGO PLATAFORMA</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="J3" s="7" t="inlineStr">
+        <is>
+          <t>VALOR PAGO PARA PLATAFORMA</t>
+        </is>
+      </c>
+      <c r="K3" s="7" t="inlineStr">
         <is>
           <t>CUSTO DO PRODUTO</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="L3" s="7" t="inlineStr">
         <is>
           <t>LUCRO FINAL</t>
         </is>
@@ -535,23 +405,34 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>5 ESCOVA 17CM + 4 ESCOVAS 21CM</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>2024-09-02 08:11</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>24.90</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>10.06</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
+      <c r="J4" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="5">
@@ -572,23 +453,34 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>S/V</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pernambuco</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>2024-09-06 15:11</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>44.90</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>14.930000000000001</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="J5" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="K5" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -609,23 +501,34 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>40cm</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Minas Gerais</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>2024-09-04 10:34</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>19.00</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>8.19</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="J6" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -646,23 +549,34 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>S/V</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>2024-09-06 15:57</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>19.90</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>8.84</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+      <c r="J7" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -683,167 +597,677 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Allen + Torx</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>2024-09-06 19:56</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>27.90</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>10.79</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
+      <c r="J8" t="n">
+        <v>17.11</v>
+      </c>
+      <c r="K8" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>240910JB1TU9EH</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ID-4556B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BORRIFADOR 400ML MULTIÚSO IDEA CABELEIREIRO SALÃO ESTILOSO</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>S/V</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2024-09-09 22:22</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>240910HVTEPPCK</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Ferro De Solda 100w 110V/220v Eletrico Com Suporte Proficional</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>110V</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2024-09-09 18:05</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>46.46</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>31.15</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>240908EMK64DTN</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Kit 24 Ovos Falsos De Plástico Serve Para ajudar aumentar produção</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>S/V</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Paraná</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2024-09-08 11:00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>53.80</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>33.95999999999999</v>
+      </c>
+      <c r="K11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2409055BY30A7U</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Chapéu Country Cowboy Americano Modelo Clássico Em Feltro Marrom Preto Palha</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Preto Escamado</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2024-09-04 18:31</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>240911MWGJ38NV</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Kit 3 Alicates Bijuterias de 4,5 polegadas Pequeno fazer terço</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>S/V</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2024-09-10 22:55</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="K13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2409042VVJE04Y</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>BAR-315004-8</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Jogo De Tarraxas Macho Para Abrir Roscas C/ 8 Peças M3 A M12 Resistente</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>S/V</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Pernambuco</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2024-09-03 18:56</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>44.90</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>29.97</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>240909F4T1M4F3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>VK-3473</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Kit Chave Torx + Kit Allen 18 Peças Aço Cromo Vanadium</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Somente Torx</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Alagoas</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2024-09-08 15:51</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="K15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>240907BQVS6QQG</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>HR150A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Estojo Material Escolar Maleta 48/68/86/150/208 Peças Completo Pequeno Grande Super Grande</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>150 PEÇAS (ROSA)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2024-09-07 07:21</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>36.56</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>240905791D2ARY</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Kit 12 a 72 Ovos Falsos De Plástico Serve Para ajudar aumentar produção Brinquedo Real</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>72 (6 Pacotes)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Minas Gerais</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2024-09-05 12:43</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>68.90</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>49.74000000000001</v>
+      </c>
+      <c r="K17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>240909G2CVTGHT</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Chave de Fenda e Philips Imantadas Kit Jogo com 6 peças</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Cabo Plástico Barcelona</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Alagoas</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2024-09-09 00:41</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2409056CB5D9FP</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Kit 24 Ovos Falsos De Plástico Serve Para ajudar aumentar produção</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>S/V</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Mato Grosso do Sul</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2024-09-05 04:12</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="K19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>240910JBGUFGTE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>VK-8014</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Alicate De Corte Diagonal 6 Pol. 150mm Corte Cabo Fio Arame</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>S/V</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Minas Gerais</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2024-09-09 22:30</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="K20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>240911NVKHG77U</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Kit 3 Alicates Bijuterias de 4,5 polegadas Pequeno fazer terço</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>S/V</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2024-09-11 08:12</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="K21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>240909F5FSR526</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>VK-8375</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Jogo De Macho Para Fazer Rosca 8 Peças Profissional Promoção</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>S/V</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Minas Gerais</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2024-09-08 16:01</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>44.90</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>31.02</v>
+      </c>
+      <c r="K22" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="B1:L2"/>
   </mergeCells>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
-  <cols>
-    <col width="9.5546875" customWidth="1" style="5" min="2" max="2"/>
-    <col width="52.33203125" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="10.5546875" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>VALORES DE PRODUTOS</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
-    <row r="3" ht="18.75" customHeight="1" s="5">
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>PRODUTO</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>CUSTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1(BAR-91408-55) + 2 (ID-4864E)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Kit 3 Conjuntos de Escovas de Aço Multiuso Kit 9 Peças - Material Aço - Latão - Nylon</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>VK-8375</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Jogo De Macho Para Fazer Rosca 8 Peças Profissional Promoção</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>BAR-57952-53</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Nível Régua 3 Bolhas 40cm/50cm Profissional ABS De Prumo Medição Nivelador Pronta Entrega</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ID-7538C</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Protetor Solar Parabrisas Quebra Sol Para Painel De Carro Ventosa</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>VK-3473 + 68399-11</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Kit Chave Torx + Kit Allen 18 Peças Aço Cromo Vanadium</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D2"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-</worksheet>
 </file>
--- a/RELATORIO_VENDAS.xlsx
+++ b/RELATORIO_VENDAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC FEIRAO 03\Documents\BUGO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305495B2-2770-4FF1-AA1D-4A2B2C26A02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3E063E-CD61-4223-B38B-A07967FA6167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,6 +69,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -123,6 +126,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,16 +453,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
@@ -508,16 +515,16 @@
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -543,7 +550,7 @@
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
@@ -570,7 +577,7 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
     </row>

--- a/RELATORIO_VENDAS.xlsx
+++ b/RELATORIO_VENDAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC FEIRAO 03\Documents\BUGO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3E063E-CD61-4223-B38B-A07967FA6167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68458A0D-CE3A-4AFD-8FDE-39B0EB2A0533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>RELATÓRIO DE VENDAS</t>
   </si>
@@ -59,10 +59,172 @@
     <t>LUCRO FINAL</t>
   </si>
   <si>
+    <t>240902VBQMGWTV</t>
+  </si>
+  <si>
+    <t>1(BAR-91408-55) + 2 (ID-4864E)</t>
+  </si>
+  <si>
+    <t>Kit 3 Conjuntos de Escovas de Aço Multiuso Kit 9 Peças - Material Aço - Latão - Nylon</t>
+  </si>
+  <si>
+    <t>5 ESCOVA 17CM + 4 ESCOVAS 21CM</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>2024-09-02 08:11</t>
+  </si>
+  <si>
+    <t>24.90</t>
+  </si>
+  <si>
+    <t>240907A1QGE0JR</t>
+  </si>
+  <si>
+    <t>VK-8375</t>
+  </si>
+  <si>
+    <t>Jogo De Macho Para Fazer Rosca 8 Peças Profissional Promoção</t>
+  </si>
+  <si>
+    <t>S/V</t>
+  </si>
+  <si>
+    <t>Pernambuco</t>
+  </si>
+  <si>
+    <t>2024-09-06 15:11</t>
+  </si>
+  <si>
+    <t>44.90</t>
+  </si>
+  <si>
+    <t>2409044HBDT96A</t>
+  </si>
+  <si>
+    <t>BAR-57952-53</t>
+  </si>
+  <si>
+    <t>Nível Régua 3 Bolhas 40cm/50cm Profissional ABS De Prumo Medição Nivelador Pronta Entrega</t>
+  </si>
+  <si>
+    <t>40cm</t>
+  </si>
+  <si>
+    <t>Minas Gerais</t>
+  </si>
+  <si>
+    <t>2024-09-04 10:34</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>240907A499B02E</t>
+  </si>
+  <si>
+    <t>ID-7538C</t>
+  </si>
+  <si>
+    <t>Protetor Solar Parabrisas Quebra Sol Para Painel De Carro Ventosa</t>
+  </si>
+  <si>
+    <t>Sergipe</t>
+  </si>
+  <si>
+    <t>2024-09-06 15:57</t>
+  </si>
+  <si>
+    <t>19.90</t>
+  </si>
+  <si>
+    <t>240907AHNT63PW</t>
+  </si>
+  <si>
+    <t>VK-3473 + 68399-11</t>
+  </si>
+  <si>
+    <t>Kit Chave Torx + Kit Allen 18 Peças Aço Cromo Vanadium</t>
+  </si>
+  <si>
+    <t>Allen + Torx</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>2024-09-06 19:56</t>
+  </si>
+  <si>
+    <t>27.90</t>
+  </si>
+  <si>
+    <t>240910JB1TU9EH</t>
+  </si>
+  <si>
+    <t>ID-4556B</t>
+  </si>
+  <si>
+    <t>BORRIFADOR 400ML MULTIÚSO IDEA CABELEIREIRO SALÃO ESTILOSO</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>2024-09-09 22:22</t>
+  </si>
+  <si>
+    <t>11.90</t>
+  </si>
+  <si>
+    <t>240910HVTEPPCK</t>
+  </si>
+  <si>
+    <t>Ferro De Solda 100w 110V/220v Eletrico Com Suporte Proficional</t>
+  </si>
+  <si>
+    <t>110V</t>
+  </si>
+  <si>
+    <t>2024-09-09 18:05</t>
+  </si>
+  <si>
+    <t>46.46</t>
+  </si>
+  <si>
     <t>TABELA DE PRODUTOS</t>
   </si>
   <si>
     <t>CUSTO</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>%Lucro</t>
   </si>
 </sst>
 </file>
@@ -70,7 +232,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -117,19 +279,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L3"/>
+  <dimension ref="B1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,41 +622,43 @@
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="2:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="2:13" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -515,22 +680,267 @@
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>14.84</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>29.97</v>
+      </c>
+      <c r="K5">
+        <v>16</v>
+      </c>
+      <c r="L5">
+        <v>13.97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6">
+        <v>10.81</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7">
+        <v>11.06</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8">
+        <v>17.11</v>
+      </c>
+      <c r="K8">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9">
+        <v>5.28</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10">
+        <v>31.15</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>21.15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:L2"/>
+    <mergeCell ref="B1:M2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
@@ -539,7 +949,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:E3"/>
+  <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -550,22 +960,22 @@
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -577,8 +987,103 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/RELATORIO_VENDAS.xlsx
+++ b/RELATORIO_VENDAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kresl\Documents\repository\BUGO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C4E929-CBA5-4D8F-80D3-AA7AC096885D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0FEB7C-894F-4782-8F5E-69500629D1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VENDAS" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="474">
   <si>
     <t>RELATÓRIO DE VENDAS</t>
   </si>
@@ -74,9 +74,540 @@
     <t>% DE LUCRO</t>
   </si>
   <si>
+    <t>Jogo De Macho Para Fazer Rosca 8 Peças Profissional Promoção</t>
+  </si>
+  <si>
+    <t>VK-8375</t>
+  </si>
+  <si>
+    <t>S/V</t>
+  </si>
+  <si>
+    <t>Estojo Material Escolar Maleta 48/68/86/150/208 Peças Completo Pequeno Grande Super Grande</t>
+  </si>
+  <si>
+    <t>HR208A</t>
+  </si>
+  <si>
+    <t>208 PEÇAS (ROSA)</t>
+  </si>
+  <si>
+    <t>Nível Régua 3 Bolhas 40cm/50cm Profissional ABS De Prumo Medição Nivelador Pronta Entrega</t>
+  </si>
+  <si>
+    <t>BAR-57952-53</t>
+  </si>
+  <si>
+    <t>40cm</t>
+  </si>
+  <si>
+    <t>Kit 24 Ovos Falsos De Plástico Serve Para ajudar aumentar produção</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>Leque Dobrável com Decoração Florida para Abanar</t>
+  </si>
+  <si>
+    <t>ALS-2300--Preto-1 UNIDADE</t>
+  </si>
+  <si>
+    <t>Preto,1 UNIDADE</t>
+  </si>
+  <si>
+    <t>ALS-2300--Rosa-1 UNIDADE</t>
+  </si>
+  <si>
+    <t>Rosa,1 UNIDADE</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>Ferro De Solda 100w 110V/220v Eletrico Com Suporte Proficional</t>
+  </si>
+  <si>
+    <t>110V</t>
+  </si>
+  <si>
+    <t>Kit 12 Ovos Falsos De Plástico De Mentira Para Indez Galinha Brinquedo</t>
+  </si>
+  <si>
+    <t>9032143118</t>
+  </si>
+  <si>
+    <t>Kit Jogo De Chave De Vela 6 Peças De 8 A 17mm Em Aço</t>
+  </si>
+  <si>
+    <t>VK-6891</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>Ferro de Solda Profissional 110v/220v - 30w/40w/60w/100w Soldar Soda Elétrica Alumínio + Estanho</t>
+  </si>
+  <si>
+    <t>127V - 60W</t>
+  </si>
+  <si>
+    <t>Alicate Tesoura Para Cortar Chapa Galvanizada Ferro Aluminio Aço</t>
+  </si>
+  <si>
+    <t>2851T</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>Martelo Unha Profissional 32cm + Mini Martelo 16cm Com Cabo Emborrachado e Fibra Portátil</t>
+  </si>
+  <si>
+    <t>Martelinho 16cm + Martelo 32cm</t>
+  </si>
+  <si>
+    <t>15.4</t>
+  </si>
+  <si>
+    <t>Alicate de Bico Profissional com cabo emborrachado 6 polegadas</t>
+  </si>
+  <si>
+    <t>VK-8012</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>Formão Entalho para Madeira com 6 peças S-06 Western</t>
+  </si>
+  <si>
+    <t>S-06</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>Esquadro Régua Carpinteiro Pedreiro Metálico Aço De 30cm Kit Profissional e Nível Polímetro Pedreiro</t>
+  </si>
+  <si>
+    <t>NIVEL VERMELHO</t>
+  </si>
+  <si>
+    <t>SOMENTE NÍVEL 32CM (MAGNÉTICO)</t>
+  </si>
+  <si>
+    <t>Chapéu Country Americano Cowgirl Cowboy Rodeio Barretos Sertanejo Boiadeiro Vaqueiro</t>
+  </si>
+  <si>
+    <t>Marrom Tecido</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>CR14</t>
+  </si>
+  <si>
+    <t>86 PEÇAS (ROSA)</t>
+  </si>
+  <si>
+    <t>Kit 12 a 72 Ovos Falsos De Plástico Serve Para ajudar aumentar produção Brinquedo Real</t>
+  </si>
+  <si>
+    <t>24 (2 Pacotes)</t>
+  </si>
+  <si>
+    <t>Alicate De Corte Diagonal 6 Pol. 150mm Corte Cabo Fio Arame</t>
+  </si>
+  <si>
+    <t>VK-8014</t>
+  </si>
+  <si>
+    <t>Martelinho 16cm + Martelo 28cm</t>
+  </si>
+  <si>
+    <t>15.9</t>
+  </si>
+  <si>
+    <t>Jogo De Tarraxas Macho Para Abrir Roscas C/ 8 Peças M3 A M12 Resistente</t>
+  </si>
+  <si>
+    <t>BAR-315004-8</t>
+  </si>
+  <si>
+    <t>Kit 12 Ovos Falsos De Plástico Serve Para Indez Galinha com Cor Real</t>
+  </si>
+  <si>
+    <t>Chave Inglesa Ajustável 10 Polegadas Ford Original Altíssima Qualidade</t>
+  </si>
+  <si>
+    <t>Serrote de Poda árvores Cortar Madeira com cabo 16 polegadas Emborrachado/Madeira</t>
+  </si>
+  <si>
+    <t>314014-4</t>
+  </si>
+  <si>
+    <t>Madeira</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>Kit 3 Alicates Bijuterias de 4,5 polegadas Pequeno fazer terço</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>ALS-2300--Rosa bebe-4 UNIDADES</t>
+  </si>
+  <si>
+    <t>Rosa bebe,4 UNIDADES</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>ALS-2300--Rosa-4 UNIDADES</t>
+  </si>
+  <si>
+    <t>Rosa,4 UNIDADES</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Jogo e kit de Chave Canhão 4 Pcs Aço 8 a 13 mm Profissional</t>
+  </si>
+  <si>
+    <t>Kit Chave Torx + Kit Allen 18 Peças Aço Cromo Vanadium</t>
+  </si>
+  <si>
+    <t>Kit 3 Conjuntos de Escovas de Aço Multiuso Kit 9 Peças - Material Aço - Latão - Nylon Grande/Pequena</t>
+  </si>
+  <si>
+    <t>ID-4864E (3 cartelas)</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>HR208C</t>
+  </si>
+  <si>
+    <t>208 PEÇAS (VERDE</t>
+  </si>
+  <si>
+    <t>VK-2317</t>
+  </si>
+  <si>
+    <t>50cm</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>Kit Fomão + Martelo Starex Profissional Combo Promoção</t>
+  </si>
+  <si>
+    <t>510+6121</t>
+  </si>
+  <si>
+    <t>Ferro de Solda 30w 40w 60w 100w 110v 220v Profissional INMETRO</t>
+  </si>
+  <si>
+    <t>21329313685-60W 110V</t>
+  </si>
+  <si>
+    <t>60W 110V</t>
+  </si>
+  <si>
+    <t>Lima Grossa Grande Jogo kit com tres unidades 30cm de Qualidade Pronta Entrega</t>
+  </si>
+  <si>
+    <t>ID-4905L</t>
+  </si>
+  <si>
+    <t>Nive Polímero Amarelo 3 Bolhas 50 cm Grande com Marcação Régua Na Promoção</t>
+  </si>
+  <si>
+    <t>4.5 INCH</t>
+  </si>
+  <si>
+    <t>ZIQIANG</t>
+  </si>
+  <si>
+    <t>127V - 100W</t>
+  </si>
+  <si>
+    <t>Mini Martelo Martelinho Linha Premium Profissional Aço Cromado</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>11.9</t>
+  </si>
+  <si>
+    <t>220V - 100W</t>
+  </si>
+  <si>
+    <t>Kit 5 Peças Furador Vazador Couro Profissional 3/4/5/6/8mm Perfurador Cinto Agulhão de Artesanato</t>
+  </si>
+  <si>
+    <t>ID-6235H-IDEA-1-UNIDADE</t>
+  </si>
+  <si>
+    <t>1 Unidade</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>HR68A</t>
+  </si>
+  <si>
+    <t>68 PEÇAS (ROSA)</t>
+  </si>
+  <si>
+    <t>21329313685-40W 220V</t>
+  </si>
+  <si>
+    <t>40W 220V</t>
+  </si>
+  <si>
+    <t>Martelinho 16cm (1 peça)</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>Serra De Poda + Serrote De Jardinagem Paisagismo Kit 2 Peças</t>
+  </si>
+  <si>
+    <t>Serrote Varios Tamanho 16 18 20 Polegadas de Excelência em Corte Cabo Madeira</t>
+  </si>
+  <si>
+    <t>BAR-314015-5</t>
+  </si>
+  <si>
+    <t>18"</t>
+  </si>
+  <si>
+    <t>NÍVEL PROFISSIONAL 50cm 20pol C/ 3 BOLHAS + RÉGUA</t>
+  </si>
+  <si>
+    <t>Fita Métrica de 30m em formato de Carretilha Compacta Promoção Limitada</t>
+  </si>
+  <si>
+    <t>Martelo 32cm (1 peça)</t>
+  </si>
+  <si>
+    <t>Lanterna Recarregável Bivolts de Alta Luminosidade com 1 LED(3W) Super Potente Camping</t>
+  </si>
+  <si>
+    <t>MAX-1001</t>
+  </si>
+  <si>
+    <t>Jogo de Chave Torx Curta 9 Peças Aço Cromo Vanadium T10 A T50 Grande</t>
+  </si>
+  <si>
+    <t>VK-3474</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>127V - 30W</t>
+  </si>
+  <si>
+    <t>Alicate de Corte meia cana cabo borracha corta arame fio</t>
+  </si>
+  <si>
+    <t>VK-8013</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>Martelo 28cm (1 Peça)</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>Castiçal Candelabro De Vidro Formato De Rosas Com Vela Vermelho Azul Rosa Branco</t>
+  </si>
+  <si>
+    <t>COD: 06 - Rosa DUPLO</t>
+  </si>
+  <si>
+    <t>18.8</t>
+  </si>
+  <si>
+    <t>Alicate Para Anéis Internos Externo Bico Curvo/Reto 7" Profissional</t>
+  </si>
+  <si>
+    <t>RETO</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>BAR-314016-6</t>
+  </si>
+  <si>
+    <t>20"</t>
+  </si>
+  <si>
     <t>Kit 3 Conjuntos de Escovas de Aço Multiuso Kit 9 Peças - Material Aço - Latão - Nylon</t>
   </si>
   <si>
+    <t>3 CARTELAS (ID-4864E)</t>
+  </si>
+  <si>
+    <t>3 ESCOVA 17CM + 6 ESCOVAS 21CM</t>
+  </si>
+  <si>
+    <t>220V - 30W</t>
+  </si>
+  <si>
+    <t>ALS-2300-Branco-4 UNIDADES</t>
+  </si>
+  <si>
+    <t>Branco,4 UNIDADES</t>
+  </si>
+  <si>
+    <t>ALS-2300--Preto-4 UNIDADES</t>
+  </si>
+  <si>
+    <t>Preto,4 UNIDADES</t>
+  </si>
+  <si>
+    <t>3 CARTELAS (BAR-91408-55)</t>
+  </si>
+  <si>
+    <t>9 ESCOVAS 17CM</t>
+  </si>
+  <si>
+    <t>ALS-2300--Roxo-4 UNIDADES</t>
+  </si>
+  <si>
+    <t>Roxo,4 UNIDADES</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>HR150A</t>
+  </si>
+  <si>
+    <t>150 PEÇAS (ROSA)</t>
+  </si>
+  <si>
+    <t>Martelo Profissional Unha Cabo Emborrachado Fibra Portátil Aço Reforçado</t>
+  </si>
+  <si>
+    <t>VK-510</t>
+  </si>
+  <si>
+    <t>MARTELO 32CM</t>
+  </si>
+  <si>
+    <t>Jogo 4 Formao kit cabo de Madeira Goiva Profissional 4 Tamanhos 1/4", 3/8", 1/2", 1"</t>
+  </si>
+  <si>
+    <t>VK-6121</t>
+  </si>
+  <si>
+    <t>Castiçal Cristal Brilhante 4 Tamanhos Novidade</t>
+  </si>
+  <si>
+    <t>7,5 cm - 2041</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Kit com 3 Mini Alicates Multiuso 4.5" - IDEA</t>
+  </si>
+  <si>
+    <t>23797151532</t>
+  </si>
+  <si>
+    <t>Macaco Sanfona para Carro de 1T/2T Compacto Seguro com Alavanca Universal tipo joelho Jacaré</t>
+  </si>
+  <si>
+    <t>ID-6950M</t>
+  </si>
+  <si>
+    <t>2 Tonelada</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>Kit Formão Cabo Madeira Jogo Com 4 OU 12 Peças 1/4", 3/8", 1/2", 1"</t>
+  </si>
+  <si>
+    <t>4 Peças</t>
+  </si>
+  <si>
+    <t>Chave de Fenda e Philips Imantadas Kit Jogo com 6 peças</t>
+  </si>
+  <si>
+    <t>Cabo de Plástico</t>
+  </si>
+  <si>
+    <t>Kit Material Escolar Completo Estojo Maleta De Pintura Infantil 150 PeçasColorir Canetinha papelaria</t>
+  </si>
+  <si>
+    <t>CR13</t>
+  </si>
+  <si>
+    <t>MALETA MENINO,86 PEÇAS</t>
+  </si>
+  <si>
+    <t>MALETA MENINA,86 PEÇAS</t>
+  </si>
+  <si>
+    <t>Imagem Nossa Senhora Aparecida para carro estante escrivaninha mesa</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>Chaveiro Religioso Dourado São Jorge / Jorge da Capadócia Promoção</t>
+  </si>
+  <si>
+    <t>14320870960</t>
+  </si>
+  <si>
+    <t>MALETA MENINA,208 Peças</t>
+  </si>
+  <si>
+    <t>CR06</t>
+  </si>
+  <si>
+    <t>68 PEÇAS (PRETO)</t>
+  </si>
+  <si>
+    <t>Crucifixo De Mesa Ou Parede Dourado Prata 15cm Perolado</t>
+  </si>
+  <si>
+    <t>Prata</t>
+  </si>
+  <si>
     <t>1(BAR-91408-55) + 2 (ID-4864E)</t>
   </si>
   <si>
@@ -86,88 +617,436 @@
     <t>10.1</t>
   </si>
   <si>
-    <t>Jogo De Macho Para Fazer Rosca 8 Peças Profissional Promoção</t>
-  </si>
-  <si>
-    <t>VK-8375</t>
-  </si>
-  <si>
-    <t>S/V</t>
-  </si>
-  <si>
-    <t>Nível Régua 3 Bolhas 40cm/50cm Profissional ABS De Prumo Medição Nivelador Pronta Entrega</t>
-  </si>
-  <si>
-    <t>BAR-57952-53</t>
-  </si>
-  <si>
-    <t>40cm</t>
+    <t>Estojo Maleta 68 Peças Crianças Canetinhas Giz Lápis Menina</t>
+  </si>
+  <si>
+    <t>CR09</t>
+  </si>
+  <si>
+    <t>Chapéu Country Cowboy Americano Modelo Clássico Em Feltro Marrom Preto Palha</t>
+  </si>
+  <si>
+    <t>Preto Tecido (Modelo Novo)</t>
+  </si>
+  <si>
+    <t>Alicates -  corte/universal/meia-cana</t>
+  </si>
+  <si>
+    <t>Kit Alicate</t>
+  </si>
+  <si>
+    <t>Preto Escamado</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>Jogo De Macho Rosca Ferramenta para Fazer/Abrir  Rosca kit 8 pçs M3 M4 M5 M6 M8 M10 M12 Profissional</t>
+  </si>
+  <si>
+    <t>12 peças</t>
+  </si>
+  <si>
+    <t>Estojo Maleta Escolar Infantil 150 Pças + Desenho P/ Pintura</t>
+  </si>
+  <si>
+    <t>CR15</t>
+  </si>
+  <si>
+    <t>HR150A/CR16</t>
+  </si>
+  <si>
+    <t>MALETA MENINA,150 PEÇAS</t>
+  </si>
+  <si>
+    <t>Castiçal Porta Velas de Vidro em formato de Flor 13cm Decoração</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>Mini Rádio Livstar 2 Bandas Am/Fm 1W á Pilha CNN-788/798 para Bolso</t>
+  </si>
+  <si>
+    <t>CNN-788-Prata</t>
+  </si>
+  <si>
+    <t>CNN-788,Prata</t>
+  </si>
+  <si>
+    <t>Maleta/Estojo De Pintura Infantil de Vários Tamanhos Cor Masculino Feminino</t>
+  </si>
+  <si>
+    <t>HR68C</t>
+  </si>
+  <si>
+    <t>Verde,68 Peças</t>
+  </si>
+  <si>
+    <t>Jogo de Chave Torx Curta 9 Peças Aço Cromo Vanadium T10 A T50 Pequena</t>
+  </si>
+  <si>
+    <t>VK-3472</t>
+  </si>
+  <si>
+    <t>HR48C/CR3</t>
+  </si>
+  <si>
+    <t>MALETA MENINO,48 PEÇAS</t>
+  </si>
+  <si>
+    <t>Chapeu Preto de Tecido ou Couro Sintético Boiadeiro Campo Roça Elegante para Festas</t>
+  </si>
+  <si>
+    <t>Tecido</t>
+  </si>
+  <si>
+    <t>Maleta De Pintura Infantil Unicórnio Mágico Color Estojo 42 /48 peças PROMOÇÃO IMPERDÍVEL</t>
+  </si>
+  <si>
+    <t>CR12</t>
+  </si>
+  <si>
+    <t>42 Peças(UICÓRNIO)</t>
+  </si>
+  <si>
+    <t>CR11</t>
+  </si>
+  <si>
+    <t>MALETA MENINO,42 PEÇAS</t>
+  </si>
+  <si>
+    <t>MALETA MENINA,42 PEÇAS</t>
+  </si>
+  <si>
+    <t>Kit de Ferramentas com 2 Chaves Fenda e Phillips para Casa Eletricista</t>
+  </si>
+  <si>
+    <t>J030</t>
+  </si>
+  <si>
+    <t>Cabo Plástico Barcelona</t>
+  </si>
+  <si>
+    <t>Escova Circular de Aço para Furadeira com Corpo Ondulado Ferramenta Versátil para Diversas Superfícies</t>
+  </si>
+  <si>
+    <t>BAR-326008-7</t>
+  </si>
+  <si>
+    <t>ALS-2300--Azul-1 UNIDADE</t>
+  </si>
+  <si>
+    <t>Azul,1 UNIDADE</t>
+  </si>
+  <si>
+    <t>Maleta De Pintura Carros Velozes Grande - kit Escolar c/ 150 peças - CR15 - Desenhos para Colorir Completo</t>
+  </si>
+  <si>
+    <t>HR68A/CR10</t>
+  </si>
+  <si>
+    <t>MALETA MENINA,68 PEÇAS</t>
+  </si>
+  <si>
+    <t>Cinza Tecido</t>
+  </si>
+  <si>
+    <t>BAR-31406-7</t>
+  </si>
+  <si>
+    <t>MARTELO 28CM</t>
+  </si>
+  <si>
+    <t>Canivete Butterfly Borboleta Cs Go para Manobras knife Preto Vazado</t>
+  </si>
+  <si>
+    <t>Tesoura de Poda para picotar Grande de 8 polegadas Super Resistente Amolado com mola Profissional Promoção</t>
+  </si>
+  <si>
+    <t>ID-6417T</t>
+  </si>
+  <si>
+    <t>CR16</t>
+  </si>
+  <si>
+    <t>Rosa,150 Peças</t>
+  </si>
+  <si>
+    <t>Protetor Solar Parabrisa  Quebra-sol -Com Proteção Uv Carro portatil</t>
+  </si>
+  <si>
+    <t>22897172357-1und</t>
+  </si>
+  <si>
+    <t>1und</t>
+  </si>
+  <si>
+    <t>12 (1 Pacote)</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>HR150C</t>
+  </si>
+  <si>
+    <t>150 PEÇAS (VERDE)</t>
+  </si>
+  <si>
+    <t>ESQUADRO DE 30CM</t>
+  </si>
+  <si>
+    <t>NÍVEL DE 50CM (1 Peça)</t>
+  </si>
+  <si>
+    <t>Jogo De Macho/Tarraxa Furador Manual para Fazer Rosca 8 Peças Profissional Galvanizado M3 a M12</t>
+  </si>
+  <si>
+    <t>TARRAXA</t>
+  </si>
+  <si>
+    <t>Kit 2 Conjuntos de Escovas de Aço Multiuso Kit 6 Peças -  Material Aço -  Latão -  Nylon</t>
+  </si>
+  <si>
+    <t>23192595027</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>Chapéu Panama Fedora Estilo Malandro Pagodeiro</t>
+  </si>
+  <si>
+    <t>23592934352-Azul</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>Canivete Multiúso 3" em Aço Inoxidável Tipo Suíço com 7 Funções Camping Pesca Suíço Chaveiro Compacto Multifunção</t>
+  </si>
+  <si>
+    <t>MK-06-1383</t>
+  </si>
+  <si>
+    <t>Mini Martelo Pequeno Cabo Curto Emborrachado Martelinho 16cm</t>
+  </si>
+  <si>
+    <t>CR03</t>
+  </si>
+  <si>
+    <t>48 PEÇAS (PRETO)</t>
+  </si>
+  <si>
+    <t>86 PEÇAS (PRETO)</t>
+  </si>
+  <si>
+    <t>Kit 3 Mini Alicates De Corte/redondo/meia Cana Eletrônicos</t>
+  </si>
+  <si>
+    <t>6771A</t>
+  </si>
+  <si>
+    <t>Chapéu Country Cowboy Americano Modelo Clássico Em Feltro Palha</t>
+  </si>
+  <si>
+    <t>Com brinde</t>
+  </si>
+  <si>
+    <t>Estanho 0.8mm 80g</t>
+  </si>
+  <si>
+    <t>ALS-2300-Roxo-1 UNIDADE</t>
+  </si>
+  <si>
+    <t>Roxo,1 UNIDADE</t>
+  </si>
+  <si>
+    <t>Chapeu Country Boiadeiro Boiadeira Sertanejo Festas Junina Elegante Roça</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>KIT JOGO BROCAS COM 6/16 PEÇAS PARA METAL, MADEIRA E CONCRETO COMPLETO</t>
+  </si>
+  <si>
+    <t>ID-9596B</t>
+  </si>
+  <si>
+    <t>Kit com 16 Brocas</t>
+  </si>
+  <si>
+    <t>MLB27860849-220V</t>
+  </si>
+  <si>
+    <t>220V</t>
+  </si>
+  <si>
+    <t>68 PEÇAS (VERDE)</t>
+  </si>
+  <si>
+    <t>Palha</t>
+  </si>
+  <si>
+    <t>HR150C/CR15</t>
+  </si>
+  <si>
+    <t>MALETA MENINO,150 PEÇAS</t>
+  </si>
+  <si>
+    <t>COD: 09 - Azul</t>
+  </si>
+  <si>
+    <t>220V - 60W</t>
+  </si>
+  <si>
+    <t>72 (6 Pacotes)</t>
+  </si>
+  <si>
+    <t>Rosa,68 Peças</t>
+  </si>
+  <si>
+    <t>Escova De Aço Multiuso Kit com 3 pçs Cobre Nylon Aço Inoxidável Ferramentas De Limpeza Manual</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>Cabo de Fibra</t>
+  </si>
+  <si>
+    <t>Terço Fluorescente Grande Nossa Senhora Aparecida</t>
+  </si>
+  <si>
+    <t>13079</t>
+  </si>
+  <si>
+    <t>Brinquedo Infantil Macaco Monkey Dançarino C/ Luzes E Música a Pilha</t>
+  </si>
+  <si>
+    <t>JB072319</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Jogo de Tarraxa Macho Femea Abre Rosca na Case Profissional de alta Qualidade</t>
+  </si>
+  <si>
+    <t>VK-1210</t>
+  </si>
+  <si>
+    <t>Branco</t>
+  </si>
+  <si>
+    <t>Macaco Sanfona Para Carros Passeio Automóveis 1T/2T 1000/2000 Kg Universal Elevação Troca de pneus</t>
+  </si>
+  <si>
+    <t>10584217278-1T - Tonelada</t>
+  </si>
+  <si>
+    <t>1T - Tonelada</t>
+  </si>
+  <si>
+    <t>Alicate Para Anéis Internos Bico Curvo/Reto 7"</t>
+  </si>
+  <si>
+    <t>ID-4838A</t>
+  </si>
+  <si>
+    <t>Bico Reto</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>MALETA MENINO,68 PEÇAS</t>
+  </si>
+  <si>
+    <t>48 (4 Pacotes)</t>
+  </si>
+  <si>
+    <t>Jogo Chave De Vela 5 Pçs Ferramenta Profissional Carro Moto</t>
+  </si>
+  <si>
+    <t>Jogo De Alicates De Corte Bico Eletronica Artesanato Bijuterias Alta Qualidade</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>ESQUADRO + NÍVEL DE *40CM* NOVO</t>
+  </si>
+  <si>
+    <t>ESQUADRO 30CM + NÍVEL 40CM</t>
+  </si>
+  <si>
+    <t>Alicate Turquesa Profissional Pequeno Armador de 15 cm</t>
+  </si>
+  <si>
+    <t>Dourado Tecido</t>
+  </si>
+  <si>
+    <t>Cinza Trançado</t>
+  </si>
+  <si>
+    <t>TRY-9735</t>
+  </si>
+  <si>
+    <t>NÍVEL 30CM (1 Peça)</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>ALS-2300--Azul-4 UNIDADES</t>
+  </si>
+  <si>
+    <t>Azul,4 UNIDADES</t>
+  </si>
+  <si>
+    <t>TABELA DE PRODUTOS</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>ID-7538C</t>
   </si>
   <si>
     <t>Protetor Solar Parabrisas Quebra Sol Para Painel De Carro Ventosa</t>
   </si>
   <si>
-    <t>ID-7538C</t>
-  </si>
-  <si>
     <t>5.5</t>
   </si>
   <si>
-    <t>Kit Chave Torx + Kit Allen 18 Peças Aço Cromo Vanadium</t>
-  </si>
-  <si>
     <t>VK-3473 + 68399-11</t>
   </si>
   <si>
     <t>Allen + Torx</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>ID-4556B</t>
+  </si>
+  <si>
     <t>BORRIFADOR 400ML MULTIÚSO IDEA CABELEIREIRO SALÃO ESTILOSO</t>
   </si>
   <si>
-    <t>ID-4556B</t>
-  </si>
-  <si>
-    <t>11.9</t>
-  </si>
-  <si>
     <t>2.6</t>
   </si>
   <si>
-    <t>Ferro De Solda 100w 110V/220v Eletrico Com Suporte Proficional</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>110V</t>
-  </si>
-  <si>
-    <t>Kit 24 Ovos Falsos De Plástico Serve Para ajudar aumentar produção</t>
-  </si>
-  <si>
-    <t>Chapéu Country Cowboy Americano Modelo Clássico Em Feltro Marrom Preto Palha</t>
-  </si>
-  <si>
-    <t>Preto Escamado</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>Kit 3 Alicates Bijuterias de 4,5 polegadas Pequeno fazer terço</t>
-  </si>
-  <si>
-    <t>7.8</t>
-  </si>
-  <si>
-    <t>Jogo De Tarraxas Macho Para Abrir Roscas C/ 8 Peças M3 A M12 Resistente</t>
-  </si>
-  <si>
-    <t>BAR-315004-8</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>VK-3473</t>
@@ -176,100 +1055,16 @@
     <t>Somente Torx</t>
   </si>
   <si>
-    <t>Estojo Material Escolar Maleta 48/68/86/150/208 Peças Completo Pequeno Grande Super Grande</t>
-  </si>
-  <si>
-    <t>HR150A</t>
-  </si>
-  <si>
-    <t>150 PEÇAS (ROSA)</t>
-  </si>
-  <si>
-    <t>Kit 12 a 72 Ovos Falsos De Plástico Serve Para ajudar aumentar produção Brinquedo Real</t>
-  </si>
-  <si>
-    <t>72 (6 Pacotes)</t>
-  </si>
-  <si>
-    <t>Chave de Fenda e Philips Imantadas Kit Jogo com 6 peças</t>
-  </si>
-  <si>
-    <t>Cabo Plástico Barcelona</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>Alicate De Corte Diagonal 6 Pol. 150mm Corte Cabo Fio Arame</t>
-  </si>
-  <si>
-    <t>VK-8014</t>
-  </si>
-  <si>
-    <t>7.7</t>
-  </si>
-  <si>
-    <t>Leque Dobrável com Decoração Florida para Abanar</t>
-  </si>
-  <si>
-    <t>ALS-2300--Azul-4 UNIDADES</t>
-  </si>
-  <si>
-    <t>Azul,4 UNIDADES</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>Jogo de Chave Torx Curta 9 Peças Aço Cromo Vanadium T10 A T50 Pequena</t>
-  </si>
-  <si>
-    <t>VK-3472</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>Alicate de Corte meia cana cabo borracha corta arame fio</t>
-  </si>
-  <si>
-    <t>VK-8013</t>
-  </si>
-  <si>
-    <t>Mini Martelo Martelinho Linha Premium Profissional Aço Cromado</t>
-  </si>
-  <si>
-    <t>Cabo de Fibra</t>
-  </si>
-  <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>Kit 12 Ovos Falsos De Plástico De Mentira Para Indez Galinha Brinquedo</t>
-  </si>
-  <si>
-    <t>9032143118</t>
-  </si>
-  <si>
-    <t>HR208A</t>
-  </si>
-  <si>
-    <t>208 PEÇAS (ROSA)</t>
-  </si>
-  <si>
-    <t>CR13</t>
-  </si>
-  <si>
-    <t>86 PEÇAS (PRETO)</t>
-  </si>
-  <si>
-    <t>12 (1 Pacote)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Chapéu Panama Fedora Estilo Malandro Pagodeiro</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>23592934352-Marrom</t>
@@ -290,172 +1085,34 @@
     <t>Bege</t>
   </si>
   <si>
-    <t>15.9</t>
-  </si>
-  <si>
-    <t>HR208C</t>
-  </si>
-  <si>
-    <t>208 PEÇAS (VERDE</t>
-  </si>
-  <si>
-    <t>Kit 12 Ovos Falsos De Plástico Serve Para Indez Galinha com Cor Real</t>
-  </si>
-  <si>
     <t>Maleta/Estojo De Pintura Infantil de 208 Peças com Paleta Lousa para Desenhar</t>
   </si>
   <si>
-    <t>Martelo Unha Profissional 32cm + Mini Martelo 16cm Com Cabo Emborrachado e Fibra Portátil</t>
-  </si>
-  <si>
-    <t>Martelo 28cm (1 Peça)</t>
-  </si>
-  <si>
-    <t>3 CARTELAS (BAR-91408-55)</t>
-  </si>
-  <si>
-    <t>9 ESCOVAS 17CM</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
     <t>Estojo De Pintura Com 68 Peças Para Meninas E Meninos Com Aquarela Kit Escolar 68 Peças Estojo Maleta Pintura Desenhar Acompanha Desenho</t>
   </si>
   <si>
-    <t>HR68C</t>
-  </si>
-  <si>
-    <t>Escova De Aço Multiuso Kit com 3 pçs Cobre Nylon Aço Inoxidável Ferramentas De Limpeza Manual</t>
-  </si>
-  <si>
-    <t>1115</t>
+    <t>15</t>
   </si>
   <si>
     <t>2.5</t>
   </si>
   <si>
-    <t>Jogo de Chave Torx Curta 9 Peças Aço Cromo Vanadium T10 A T50 Grande</t>
-  </si>
-  <si>
-    <t>VK-3474</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>68 PEÇAS (VERDE)</t>
-  </si>
-  <si>
-    <t>Serrote Varios Tamanho 16 18 20 Polegadas de Excelência em Corte Cabo Madeira</t>
-  </si>
-  <si>
-    <t>BAR-314016-6</t>
-  </si>
-  <si>
-    <t>20"</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>24 (2 Pacotes)</t>
-  </si>
-  <si>
-    <t>23592934352-Azul</t>
-  </si>
-  <si>
-    <t>Azul</t>
-  </si>
-  <si>
-    <t>5.3</t>
+    <t>max-2021</t>
   </si>
   <si>
     <t>Raquete Elétrica Mata Mosquito Dengue Insetos Recarregável 110/220 Bivolt Promoção</t>
   </si>
   <si>
-    <t>max-2021</t>
-  </si>
-  <si>
     <t>11.3</t>
   </si>
   <si>
-    <t>Martelo 32cm (1 peça)</t>
-  </si>
-  <si>
-    <t>6.8</t>
-  </si>
-  <si>
-    <t>CR06</t>
-  </si>
-  <si>
-    <t>68 PEÇAS (PRETO)</t>
-  </si>
-  <si>
-    <t>Estojo Maleta Escolar Infantil 150 Pças + Desenho P/ Pintura</t>
-  </si>
-  <si>
-    <t>CR15</t>
-  </si>
-  <si>
-    <t>Esquadro Régua Carpinteiro Pedreiro Metálico Aço De 30cm Kit Profissional e Nível Polímetro Pedreiro</t>
-  </si>
-  <si>
     <t>NÍVEL 40CM</t>
   </si>
   <si>
     <t>NÍVEL 40 CM (1 Peça)</t>
   </si>
   <si>
-    <t>Kit 5 Peças Furador Vazador Couro Profissional 3/4/5/6/8mm Perfurador Cinto Agulhão de Artesanato</t>
-  </si>
-  <si>
-    <t>ID-6235H-IDEA-1-UNIDADE</t>
-  </si>
-  <si>
-    <t>1 Unidade</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Alicate de Bico Profissional com cabo emborrachado 6 polegadas</t>
-  </si>
-  <si>
-    <t>VK-8012</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>Formão Entalho para Madeira com 6 peças S-06 Western</t>
-  </si>
-  <si>
-    <t>S-06</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>VK-2317</t>
-  </si>
-  <si>
-    <t>50cm</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>Kit Material Escolar Completo Estojo Maleta De Pintura Infantil 150 PeçasColorir Canetinha papelaria</t>
-  </si>
-  <si>
-    <t>HR150A/CR16</t>
-  </si>
-  <si>
-    <t>MALETA MENINA,150 PEÇAS</t>
-  </si>
-  <si>
-    <t>Maleta/Estojo De Pintura Infantil de Vários Tamanhos Cor Masculino Feminino</t>
+    <t>7</t>
   </si>
   <si>
     <t>HR48C</t>
@@ -464,79 +1121,283 @@
     <t>Verde,48 Peças</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>CR14</t>
-  </si>
-  <si>
-    <t>86 PEÇAS (ROSA)</t>
-  </si>
-  <si>
-    <t>Lima Grossa Grande Jogo kit com tres unidades 30cm de Qualidade Pronta Entrega</t>
-  </si>
-  <si>
-    <t>ID-4905L</t>
-  </si>
-  <si>
-    <t>Castiçal Candelabro De Vidro Formato De Rosas Com Vela Vermelho Azul Rosa Branco</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>68 PEÇAS (VERMELHO)</t>
+  </si>
+  <si>
+    <t>150(VERDE)</t>
+  </si>
+  <si>
+    <t>Estojo Maleta Grande Escolar Infantil 150pçs Desenho Pintura</t>
+  </si>
+  <si>
+    <t>Verde</t>
+  </si>
+  <si>
+    <t>BAR-41037-77</t>
+  </si>
+  <si>
+    <t>Rebitadeira Manual Alicate Rebitador 24cm 4 Bicos 9,5 Rebites Profissional</t>
+  </si>
+  <si>
+    <t>ESQUADRO + NÍVEL DE 50CM</t>
+  </si>
+  <si>
+    <t>ESQUADRO 30CM + NÍVEL 50CM</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>Estanho 0.8mm 150g</t>
+  </si>
+  <si>
+    <t>BAR-58224-4</t>
+  </si>
+  <si>
+    <t>Ferro de Solda Profissional para Artesanato 110V/220V Componentes Eletrônicos + Estanho Pronta Entrega</t>
+  </si>
+  <si>
+    <t>220V/60W</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>23097312109-110v-40w</t>
+  </si>
+  <si>
+    <t>Kit Ferro De Solda Soldar Soldador 110v ou 220v 40w ou 60w Com Rolo de Estanho Reforçado</t>
+  </si>
+  <si>
+    <t>110v,40w</t>
+  </si>
+  <si>
+    <t>220V - 40W</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>20908483017-798 PRETO - Á PILHA</t>
+  </si>
+  <si>
+    <t>Rádio Retrô AM/FM Portátil a Pilha Recarregável Livstar 4 Faixas Radio Retro Antigo Portatil</t>
+  </si>
+  <si>
+    <t>798 PRETO - A PILHA</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>86 PEÇAS (VERDE)</t>
+  </si>
+  <si>
+    <t>ID-2512A</t>
+  </si>
+  <si>
+    <t>Alicate Bomba D'agua 10Pol Bico Papagaio Reforçado Ajustável Cabo Ergônomico Isolado Profissional</t>
+  </si>
+  <si>
+    <t>20908483017-1394</t>
+  </si>
+  <si>
+    <t>1394</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Couro Sintético</t>
+  </si>
+  <si>
+    <t>BAR-58224-2</t>
+  </si>
+  <si>
+    <t>220V/30w</t>
   </si>
   <si>
     <t>COD: 09 - Cristal</t>
   </si>
   <si>
-    <t>18.8</t>
-  </si>
-  <si>
-    <t>Rádio Retrô AM/FM Portátil a Pilha Recarregável Livstar 4 Faixas Radio Retro Antigo Portatil</t>
-  </si>
-  <si>
-    <t>20908483017-1394</t>
-  </si>
-  <si>
-    <t>1394</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>Martelo Profissional Unha Cabo Emborrachado Fibra Portátil Aço Reforçado</t>
-  </si>
-  <si>
-    <t>VK-510</t>
-  </si>
-  <si>
-    <t>MARTELO 32CM</t>
-  </si>
-  <si>
-    <t>Martelinho 16cm + Martelo 32cm</t>
-  </si>
-  <si>
-    <t>15.4</t>
+    <t>314012-2</t>
+  </si>
+  <si>
+    <t>Serrote para Poda 16/18/20 Polegadas Cabo Emborrachado</t>
+  </si>
+  <si>
+    <t>novo altere-Rosa Bebê</t>
+  </si>
+  <si>
+    <t>Robô Dançarino Musical Estelar Com Luzes 4D Sons e Movimentos Envio Imediato</t>
+  </si>
+  <si>
+    <t>Rosa Bebê</t>
+  </si>
+  <si>
+    <t>MAX-211033</t>
+  </si>
+  <si>
+    <t>Balança Digital Cozinha Precisão Pilhas Inclusas Alta Precisão 10kg Com Pilhas</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>Maleta/Estojo De Menina Menino Pintura Infantil Unicórnio 150 Peças</t>
+  </si>
+  <si>
+    <t>Unicórnio(Rosa)</t>
+  </si>
+  <si>
+    <t>23097312109-110v-60w</t>
+  </si>
+  <si>
+    <t>110v,60w</t>
+  </si>
+  <si>
+    <t>Martelo Mini 16cm 6" Cabo Emborrachado Reforçado Martelo Pequeno</t>
+  </si>
+  <si>
+    <t>Maleta De Pintura Infantil Estojo Material Escolar 48 Peças - Verde + Desenhos</t>
+  </si>
+  <si>
+    <t>-53</t>
+  </si>
+  <si>
+    <t>Nive Polímero Amarelo 3 Bolhas 40 ou 50 cm Grande com Marcação Régua Na Promoção</t>
+  </si>
+  <si>
+    <t>68 PEÇAS (VERMELHO-MENINA)</t>
+  </si>
+  <si>
+    <t>ID-3089H</t>
+  </si>
+  <si>
+    <t>Chave de boca Maleta Jogo De Chave Combinada 14 Peças Aço Cromo</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>326007-6</t>
+  </si>
+  <si>
+    <t>Escova de aço 3 peças com hastes 25mm, 38mm e 50mm</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>saco azul</t>
+  </si>
+  <si>
+    <t>Kit com 6 Brocas Concreto</t>
+  </si>
+  <si>
+    <t>CR05</t>
+  </si>
+  <si>
+    <t>48 PEÇAS (VERMELHO)</t>
+  </si>
+  <si>
+    <t>ID-5271B</t>
+  </si>
+  <si>
+    <t>Kit com 6 Brocas + Case</t>
+  </si>
+  <si>
+    <t>COD: 06 - Cristal DUPLO</t>
+  </si>
+  <si>
+    <t>CURVO</t>
+  </si>
+  <si>
+    <t>23097312109-220v-60w</t>
+  </si>
+  <si>
+    <t>220v,60w</t>
   </si>
   <si>
     <t>Marrom Escamado</t>
   </si>
   <si>
-    <t>Ferro de Solda 30w 40w 60w 100w 110v 220v Profissional INMETRO</t>
-  </si>
-  <si>
-    <t>21329313685-60W 110V</t>
-  </si>
-  <si>
-    <t>60W 110V</t>
-  </si>
-  <si>
-    <t>Serrote para Poda 16/18/20 Polegadas Cabo Emborrachado</t>
-  </si>
-  <si>
-    <t>314012-2</t>
-  </si>
-  <si>
-    <t>18"</t>
-  </si>
-  <si>
-    <t>8.8</t>
+    <t>127V - 40W</t>
+  </si>
+  <si>
+    <t>COD: 09 - Rosa</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>20908483017-788 PRETO - Á PILHA</t>
+  </si>
+  <si>
+    <t>788 PRETO - A PILHA</t>
+  </si>
+  <si>
+    <t>20908483017-798 PRATEADO - Á PILHA</t>
+  </si>
+  <si>
+    <t>798 PRATEADO - A PILHA</t>
+  </si>
+  <si>
+    <t>bar-58252-4d</t>
+  </si>
+  <si>
+    <t>Pistola De Cola Quente para Artesanato com 2 Bastões (110v e 220v) Profissional Bivolt 40W</t>
+  </si>
+  <si>
+    <t>TRY-9740</t>
+  </si>
+  <si>
+    <t>NÍVEL PROFISSIONAL 50CM C/ 3 BOLHAS - IDEA</t>
+  </si>
+  <si>
+    <t>Aluminio (60 cm)</t>
+  </si>
+  <si>
+    <t>novo</t>
+  </si>
+  <si>
+    <t>Alicate Universal Profissional 8 Polegadas Eletricista Amarelo</t>
+  </si>
+  <si>
+    <t>150(ROSA-Unicorn)</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>NÍVEL 60CM (1 Peça)</t>
+  </si>
+  <si>
+    <t>ID-6974M</t>
+  </si>
+  <si>
+    <t>1 Tonelada</t>
+  </si>
+  <si>
+    <t>MACHO</t>
+  </si>
+  <si>
+    <t>Jogo de Chave Torx Curta 9 Peças Aço Cromo Vanadium T10 A T50 Média</t>
   </si>
   <si>
     <t>Caneca 100% Em Aço Inoxidável Com Alça De 180 Ml Pequena para Viagens</t>
@@ -545,724 +1406,43 @@
     <t>Azul 150ml</t>
   </si>
   <si>
-    <t>ALS-2300--Azul-1 UNIDADE</t>
-  </si>
-  <si>
-    <t>Azul,1 UNIDADE</t>
-  </si>
-  <si>
-    <t>ALS-2300--Rosa-4 UNIDADES</t>
-  </si>
-  <si>
-    <t>Rosa,4 UNIDADES</t>
-  </si>
-  <si>
-    <t>Estojo Maleta Grande Escolar Infantil 150pçs Desenho Pintura</t>
-  </si>
-  <si>
-    <t>150(ROSA-Unicorn)</t>
-  </si>
-  <si>
-    <t>Rosa</t>
-  </si>
-  <si>
-    <t>Jogo De Macho/Tarraxa Furador Manual para Fazer Rosca 8 Peças Profissional Galvanizado M3 a M12</t>
-  </si>
-  <si>
-    <t>MACHO</t>
-  </si>
-  <si>
-    <t>Kit 2 Conjuntos de Escovas de Aço Multiuso Kit 6 Peças -  Material Aço -  Latão -  Nylon</t>
-  </si>
-  <si>
-    <t>23192595027</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>Cabo de Plástico</t>
-  </si>
-  <si>
-    <t>Alicate Universal Profissional 8 Polegadas Eletricista Amarelo</t>
-  </si>
-  <si>
-    <t>novo</t>
-  </si>
-  <si>
-    <t>Ferro de Solda Profissional 110v/220v - 30w/40w/60w/100w Soldar Soda Elétrica Alumínio + Estanho</t>
-  </si>
-  <si>
-    <t>Estanho 0.8mm 150g</t>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>21329313685-40W 110V</t>
+  </si>
+  <si>
+    <t>40W 110V</t>
+  </si>
+  <si>
+    <t>Fita Isolante Antichamas 17mm x 10 metros Isolar PVC Cabos Fios Eletricos Adesivo a base de Borracha -10°C até 80°C</t>
+  </si>
+  <si>
+    <t>1 Fita</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>8014</t>
+  </si>
+  <si>
+    <t>Alicate Universal/Corte/Bico Multiuso Eletricista Profissional Afiado</t>
+  </si>
+  <si>
+    <t>Corte Diagonal</t>
+  </si>
+  <si>
+    <t>Nivel 50cm + Trena 5m Emborrachado</t>
+  </si>
+  <si>
+    <t>ID-4864E</t>
   </si>
   <si>
     <t>Escova De Aço Multiuso Kit com 3 Cobre Nylon Aço Inoxidável Removedor sujeira Ferramentas De Limpeza</t>
   </si>
   <si>
-    <t>ID-4864E</t>
-  </si>
-  <si>
-    <t>Preto Tecido (Modelo Novo)</t>
-  </si>
-  <si>
-    <t>Kit Ferro De Solda Soldar Soldador 110v ou 220v 40w ou 60w Com Rolo de Estanho Reforçado</t>
-  </si>
-  <si>
-    <t>23097312109-220v-60w</t>
-  </si>
-  <si>
-    <t>220v,60w</t>
-  </si>
-  <si>
-    <t>Kit 3 Mini Alicates De Corte/redondo/meia Cana Eletrônicos</t>
-  </si>
-  <si>
-    <t>6771A</t>
-  </si>
-  <si>
-    <t>86 PEÇAS (VERDE)</t>
-  </si>
-  <si>
-    <t>220V - 30W</t>
-  </si>
-  <si>
-    <t>Jogo de Chave Torx Curta 9 Peças Aço Cromo Vanadium T10 A T50 Média</t>
-  </si>
-  <si>
-    <t>Nivel 50cm + Trena 5m Emborrachado</t>
-  </si>
-  <si>
-    <t>11.2</t>
-  </si>
-  <si>
-    <t>MALETA MENINA,86 PEÇAS</t>
-  </si>
-  <si>
-    <t>Chave de boca Maleta Jogo De Chave Combinada 14 Peças Aço Cromo</t>
-  </si>
-  <si>
-    <t>ID-3089H</t>
-  </si>
-  <si>
-    <t>CR09</t>
-  </si>
-  <si>
-    <t>68 PEÇAS (VERMELHO-MENINA)</t>
-  </si>
-  <si>
-    <t>BAR-31406-7</t>
-  </si>
-  <si>
-    <t>MARTELO 28CM</t>
-  </si>
-  <si>
-    <t>Chapeu Preto de Tecido ou Couro Sintético Boiadeiro Campo Roça Elegante para Festas</t>
-  </si>
-  <si>
-    <t>Couro Sintético</t>
-  </si>
-  <si>
-    <t>NÍVEL PROFISSIONAL 50cm 20pol C/ 3 BOLHAS + RÉGUA</t>
-  </si>
-  <si>
-    <t>Alicate Para Anéis Internos Externo Bico Curvo/Reto 7" Profissional</t>
-  </si>
-  <si>
-    <t>RETO</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>48 (4 Pacotes)</t>
-  </si>
-  <si>
-    <t>HR150C</t>
-  </si>
-  <si>
-    <t>150 PEÇAS (VERDE)</t>
-  </si>
-  <si>
-    <t>Kit Jogo De Chave De Vela 6 Peças De 8 A 17mm Em Aço</t>
-  </si>
-  <si>
-    <t>VK-6891</t>
-  </si>
-  <si>
-    <t>KIT JOGO BROCAS COM 6/16 PEÇAS PARA METAL, MADEIRA E CONCRETO COMPLETO</t>
-  </si>
-  <si>
-    <t>ID-9596B</t>
-  </si>
-  <si>
-    <t>Kit com 16 Brocas</t>
-  </si>
-  <si>
-    <t>MLB27860849-220V</t>
-  </si>
-  <si>
-    <t>220V</t>
-  </si>
-  <si>
-    <t>Alicates -  corte/universal/meia-cana</t>
-  </si>
-  <si>
-    <t>Kit Alicate</t>
-  </si>
-  <si>
-    <t>Kit Fomão + Martelo Starex Profissional Combo Promoção</t>
-  </si>
-  <si>
-    <t>510+6121</t>
-  </si>
-  <si>
-    <t>Castiçal Porta Velas de Vidro em formato de Flor 13cm Decoração</t>
-  </si>
-  <si>
-    <t>Branco</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>ALS-2300--Preto-1 UNIDADE</t>
-  </si>
-  <si>
-    <t>Preto,1 UNIDADE</t>
-  </si>
-  <si>
-    <t>Chave Inglesa Ajustável 10 Polegadas Ford Original Altíssima Qualidade</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>ALS-2300--Roxo-4 UNIDADES</t>
-  </si>
-  <si>
-    <t>Roxo,4 UNIDADES</t>
-  </si>
-  <si>
-    <t>Alicate Universal/Corte/Bico Multiuso Eletricista Profissional Afiado</t>
-  </si>
-  <si>
-    <t>8014</t>
-  </si>
-  <si>
-    <t>Corte Diagonal</t>
-  </si>
-  <si>
-    <t>13.5</t>
-  </si>
-  <si>
-    <t>Nive Polímero Amarelo 3 Bolhas 40 ou 50 cm Grande com Marcação Régua Na Promoção</t>
-  </si>
-  <si>
-    <t>-53</t>
-  </si>
-  <si>
-    <t>TRY-9735</t>
-  </si>
-  <si>
-    <t>NÍVEL 30CM (1 Peça)</t>
-  </si>
-  <si>
-    <t>Macaco Sanfona para Carro de 1T/2T Compacto Seguro com Alavanca Universal tipo joelho Jacaré</t>
-  </si>
-  <si>
-    <t>ID-6974M</t>
-  </si>
-  <si>
-    <t>1 Tonelada</t>
-  </si>
-  <si>
-    <t>ALS-2300--Rosa bebe-4 UNIDADES</t>
-  </si>
-  <si>
-    <t>Rosa bebe,4 UNIDADES</t>
-  </si>
-  <si>
-    <t>ALS-2300-Branco-4 UNIDADES</t>
-  </si>
-  <si>
-    <t>Branco,4 UNIDADES</t>
-  </si>
-  <si>
-    <t>ALS-2300--Preto-4 UNIDADES</t>
-  </si>
-  <si>
-    <t>Preto,4 UNIDADES</t>
-  </si>
-  <si>
-    <t>Premium</t>
-  </si>
-  <si>
-    <t>Alicate Tesoura Para Cortar Chapa Galvanizada Ferro Aluminio Aço</t>
-  </si>
-  <si>
-    <t>2851T</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>HR150C/CR15</t>
-  </si>
-  <si>
-    <t>MALETA MENINO,150 PEÇAS</t>
-  </si>
-  <si>
-    <t>Martelinho 16cm + Martelo 28cm</t>
-  </si>
-  <si>
-    <t>Maleta De Pintura Infantil Estojo Material Escolar 48 Peças - Verde + Desenhos</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Jogo De Macho Rosca Ferramenta para Fazer/Abrir  Rosca kit 8 pçs M3 M4 M5 M6 M8 M10 M12 Profissional</t>
-  </si>
-  <si>
-    <t>CR12</t>
-  </si>
-  <si>
-    <t>MALETA MENINA,42 PEÇAS</t>
-  </si>
-  <si>
-    <t>CR16</t>
-  </si>
-  <si>
-    <t>Rosa,150 Peças</t>
-  </si>
-  <si>
-    <t>220V - 40W</t>
-  </si>
-  <si>
-    <t>127V - 30W</t>
-  </si>
-  <si>
-    <t>Fita Isolante Antichamas 17mm x 10 metros Isolar PVC Cabos Fios Eletricos Adesivo a base de Borracha -10°C até 80°C</t>
-  </si>
-  <si>
-    <t>1 Fita</t>
-  </si>
-  <si>
-    <t>Kit de Ferramentas com 2 Chaves Fenda e Phillips para Casa Eletricista</t>
-  </si>
-  <si>
-    <t>J030</t>
-  </si>
-  <si>
-    <t>HR68A</t>
-  </si>
-  <si>
-    <t>Rosa,68 Peças</t>
-  </si>
-  <si>
-    <t>Canivete Multiúso 3" em Aço Inoxidável Tipo Suíço com 7 Funções Camping Pesca Suíço Chaveiro Compacto Multifunção</t>
-  </si>
-  <si>
-    <t>MK-06-1383</t>
-  </si>
-  <si>
-    <t>Jogo Chave De Vela 5 Pçs Ferramenta Profissional Carro Moto</t>
-  </si>
-  <si>
-    <t>COD: 09 - Azul</t>
-  </si>
-  <si>
-    <t>3 CARTELAS (ID-4864E)</t>
-  </si>
-  <si>
-    <t>3 ESCOVA 17CM + 6 ESCOVAS 21CM</t>
-  </si>
-  <si>
-    <t>11.4</t>
-  </si>
-  <si>
-    <t>Maleta De Pintura Infantil Unicórnio Mágico Color Estojo 42 /48 peças PROMOÇÃO IMPERDÍVEL</t>
-  </si>
-  <si>
-    <t>42 Peças(UICÓRNIO)</t>
-  </si>
-  <si>
-    <t>Macaco Sanfona Para Carros Passeio Automóveis 1T/2T 1000/2000 Kg Universal Elevação Troca de pneus</t>
-  </si>
-  <si>
-    <t>10584217278-1T - Tonelada</t>
-  </si>
-  <si>
-    <t>1T - Tonelada</t>
-  </si>
-  <si>
-    <t>Tesoura de Poda para picotar Grande de 8 polegadas Super Resistente Amolado com mola Profissional Promoção</t>
-  </si>
-  <si>
-    <t>ID-6417T</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>Marrom Tecido</t>
-  </si>
-  <si>
-    <t>Maleta/Estojo De Menina Menino Pintura Infantil Unicórnio 150 Peças</t>
-  </si>
-  <si>
-    <t>Unicórnio(Rosa)</t>
-  </si>
-  <si>
-    <t>TRY-9740</t>
-  </si>
-  <si>
-    <t>NÍVEL 60CM (1 Peça)</t>
-  </si>
-  <si>
-    <t>CR05</t>
-  </si>
-  <si>
-    <t>48 PEÇAS (VERMELHO)</t>
-  </si>
-  <si>
-    <t>saco azul</t>
-  </si>
-  <si>
-    <t>Kit com 6 Brocas Concreto</t>
-  </si>
-  <si>
-    <t>COD: 09 - Rosa</t>
-  </si>
-  <si>
-    <t>ALS-2300-Roxo-1 UNIDADE</t>
-  </si>
-  <si>
-    <t>Roxo,1 UNIDADE</t>
-  </si>
-  <si>
-    <t>Kit 3 Conjuntos de Escovas de Aço Multiuso Kit 9 Peças - Material Aço - Latão - Nylon Grande/Pequena</t>
-  </si>
-  <si>
-    <t>ID-4864E (3 cartelas)</t>
-  </si>
-  <si>
-    <t>Terço Fluorescente Grande Nossa Senhora Aparecida</t>
-  </si>
-  <si>
-    <t>13079</t>
-  </si>
-  <si>
-    <t>Chapéu Country Americano Cowgirl Cowboy Rodeio Barretos Sertanejo Boiadeiro Vaqueiro</t>
-  </si>
-  <si>
-    <t>Martelo Mini 16cm 6" Cabo Emborrachado Reforçado Martelo Pequeno</t>
-  </si>
-  <si>
-    <t>MALETA MENINO,68 PEÇAS</t>
-  </si>
-  <si>
-    <t>21329313685-40W 110V</t>
-  </si>
-  <si>
-    <t>40W 110V</t>
-  </si>
-  <si>
-    <t>220V - 60W</t>
-  </si>
-  <si>
-    <t>68 PEÇAS (ROSA)</t>
-  </si>
-  <si>
-    <t>Ferro de Solda Profissional para Artesanato 110V/220V Componentes Eletrônicos + Estanho Pronta Entrega</t>
-  </si>
-  <si>
-    <t>BAR-58224-4</t>
-  </si>
-  <si>
-    <t>220V/60W</t>
-  </si>
-  <si>
-    <t>Dourado Tecido</t>
-  </si>
-  <si>
-    <t>Jogo 4 Formao kit cabo de Madeira Goiva Profissional 4 Tamanhos 1/4", 3/8", 1/2", 1"</t>
-  </si>
-  <si>
-    <t>VK-6121</t>
-  </si>
-  <si>
-    <t>Martelinho 16cm (1 peça)</t>
-  </si>
-  <si>
-    <t>Kit Formão Cabo Madeira Jogo Com 4 OU 12 Peças 1/4", 3/8", 1/2", 1"</t>
-  </si>
-  <si>
-    <t>12 peças</t>
-  </si>
-  <si>
-    <t>Nive Polímero Amarelo 3 Bolhas 50 cm Grande com Marcação Régua Na Promoção</t>
-  </si>
-  <si>
-    <t>20908483017-788 PRETO - Á PILHA</t>
-  </si>
-  <si>
-    <t>788 PRETO - A PILHA</t>
-  </si>
-  <si>
-    <t>20908483017-798 PRATEADO - Á PILHA</t>
-  </si>
-  <si>
-    <t>798 PRATEADO - A PILHA</t>
-  </si>
-  <si>
-    <t>Maleta De Pintura Carros Velozes Grande - kit Escolar c/ 150 peças - CR15 - Desenhos para Colorir Completo</t>
-  </si>
-  <si>
-    <t>Chapéu Country Cowboy Americano Modelo Clássico Em Feltro Palha</t>
-  </si>
-  <si>
-    <t>Com brinde</t>
-  </si>
-  <si>
-    <t>COD: 06 - Cristal DUPLO</t>
-  </si>
-  <si>
-    <t>Jogo de Tarraxa Macho Femea Abre Rosca na Case Profissional de alta Qualidade</t>
-  </si>
-  <si>
-    <t>VK-1210</t>
-  </si>
-  <si>
-    <t>ID-5271B</t>
-  </si>
-  <si>
-    <t>Kit com 6 Brocas + Case</t>
-  </si>
-  <si>
-    <t>Alicate Bomba D'agua 10Pol Bico Papagaio Reforçado Ajustável Cabo Ergônomico Isolado Profissional</t>
-  </si>
-  <si>
-    <t>ID-2512A</t>
-  </si>
-  <si>
-    <t>Pistola De Cola Quente para Artesanato com 2 Bastões (110v e 220v) Profissional Bivolt 40W</t>
-  </si>
-  <si>
-    <t>bar-58252-4d</t>
-  </si>
-  <si>
-    <t>23097312109-110v-40w</t>
-  </si>
-  <si>
-    <t>110v,40w</t>
-  </si>
-  <si>
-    <t>ID-6950M</t>
-  </si>
-  <si>
-    <t>2 Tonelada</t>
-  </si>
-  <si>
-    <t>BAR-58224-2</t>
-  </si>
-  <si>
-    <t>220V/30w</t>
-  </si>
-  <si>
     <t>314013-3</t>
-  </si>
-  <si>
-    <t>Balança Digital Cozinha Precisão Pilhas Inclusas Alta Precisão 10kg Com Pilhas</t>
-  </si>
-  <si>
-    <t>MAX-211033</t>
-  </si>
-  <si>
-    <t>Robô Dançarino Musical Estelar Com Luzes 4D Sons e Movimentos Envio Imediato</t>
-  </si>
-  <si>
-    <t>novo altere-Rosa Bebê</t>
-  </si>
-  <si>
-    <t>Rosa Bebê</t>
-  </si>
-  <si>
-    <t>NÍVEL PROFISSIONAL 50CM C/ 3 BOLHAS - IDEA</t>
-  </si>
-  <si>
-    <t>Aluminio (60 cm)</t>
-  </si>
-  <si>
-    <t>ESQUADRO + NÍVEL DE 50CM</t>
-  </si>
-  <si>
-    <t>ESQUADRO 30CM + NÍVEL 50CM</t>
-  </si>
-  <si>
-    <t>9.3</t>
-  </si>
-  <si>
-    <t>Serra De Poda + Serrote De Jardinagem Paisagismo Kit 2 Peças</t>
-  </si>
-  <si>
-    <t>Verde,68 Peças</t>
-  </si>
-  <si>
-    <t>Palha</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>127V - 40W</t>
-  </si>
-  <si>
-    <t>ESQUADRO + NÍVEL DE *40CM* NOVO</t>
-  </si>
-  <si>
-    <t>ESQUADRO 30CM + NÍVEL 40CM</t>
-  </si>
-  <si>
-    <t>9.6</t>
-  </si>
-  <si>
-    <t>CR03</t>
-  </si>
-  <si>
-    <t>48 PEÇAS (PRETO)</t>
-  </si>
-  <si>
-    <t>20908483017-798 PRETO - Á PILHA</t>
-  </si>
-  <si>
-    <t>798 PRETO - A PILHA</t>
-  </si>
-  <si>
-    <t>150(VERDE)</t>
-  </si>
-  <si>
-    <t>Verde</t>
-  </si>
-  <si>
-    <t>68 PEÇAS (VERMELHO)</t>
-  </si>
-  <si>
-    <t>CURVO</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>23097312109-110v-60w</t>
-  </si>
-  <si>
-    <t>110v,60w</t>
-  </si>
-  <si>
-    <t>Rebitadeira Manual Alicate Rebitador 24cm 4 Bicos 9,5 Rebites Profissional</t>
-  </si>
-  <si>
-    <t>BAR-41037-77</t>
-  </si>
-  <si>
-    <t>CR11</t>
-  </si>
-  <si>
-    <t>MALETA MENINO,42 PEÇAS</t>
-  </si>
-  <si>
-    <t>4 Peças</t>
-  </si>
-  <si>
-    <t>Imagem Nossa Senhora Aparecida para carro estante escrivaninha mesa</t>
-  </si>
-  <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>Escova de aço 3 peças com hastes 25mm, 38mm e 50mm</t>
-  </si>
-  <si>
-    <t>326007-6</t>
-  </si>
-  <si>
-    <t>TABELA DE PRODUTOS</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>1.1</t>
   </si>
 </sst>
 </file>
@@ -1719,7 +1899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1857,9 +2037,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:E181"/>
+  <dimension ref="B1:E220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
@@ -1873,7 +2053,7 @@
   <sheetData>
     <row r="1" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
-        <v>388</v>
+        <v>328</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -1901,2413 +2081,2413 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>389</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6" t="s">
-        <v>265</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>331</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>332</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>31</v>
+        <v>334</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>335</v>
       </c>
       <c r="E8" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>34</v>
+        <v>337</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>338</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>389</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>49</v>
+        <v>342</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>343</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="E16" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>293</v>
       </c>
       <c r="E17" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>234</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>63</v>
+        <v>326</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>327</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>297</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="E26" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>83</v>
+        <v>348</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>349</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
       <c r="E29" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>87</v>
+        <v>352</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>353</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>354</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>355</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>147</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>102</v>
+        <v>296</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>295</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>103</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>287</v>
       </c>
       <c r="E39" t="s">
-        <v>147</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="E41" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>113</v>
+        <v>265</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>264</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>213</v>
       </c>
       <c r="E42" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>117</v>
+        <v>358</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>359</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E43" t="s">
-        <v>118</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E44" t="s">
-        <v>265</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="E45" t="s">
-        <v>147</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E46" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>126</v>
+        <v>361</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>362</v>
       </c>
       <c r="E47" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C48" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D48" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E49" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E50" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="E51" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>142</v>
+        <v>210</v>
       </c>
       <c r="C52" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="E52" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>145</v>
+        <v>364</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c r="D53" t="s">
-        <v>146</v>
+        <v>365</v>
       </c>
       <c r="E53" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="E54" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E55" t="s">
-        <v>389</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>174</v>
+        <v>237</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="E56" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>234</v>
+        <v>29</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="E57" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>282</v>
       </c>
       <c r="D58" t="s">
-        <v>224</v>
+        <v>284</v>
       </c>
       <c r="E58" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E59" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>360</v>
+        <v>123</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="D61" t="s">
-        <v>257</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="D62" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E62" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E63" t="s">
-        <v>147</v>
+        <v>356</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C64" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>316</v>
+        <v>118</v>
       </c>
       <c r="E64" t="s">
-        <v>147</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
+        <v>370</v>
+      </c>
+      <c r="C65" t="s">
+        <v>371</v>
+      </c>
+      <c r="D65" t="s">
         <v>372</v>
       </c>
-      <c r="C65" t="s">
-        <v>178</v>
-      </c>
-      <c r="D65" t="s">
-        <v>373</v>
-      </c>
       <c r="E65" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C66" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D66" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>260</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>230</v>
+        <v>99</v>
       </c>
       <c r="C67" t="s">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="D67" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E67" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="C68" t="s">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c r="D68" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E68" t="s">
-        <v>243</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="C69" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="D69" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="E69" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="C70" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="D70" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="E70" t="s">
-        <v>367</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C71" t="s">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c r="D71" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="E71" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="C72" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="D72" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E72" t="s">
-        <v>293</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C73" t="s">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="D73" t="s">
-        <v>190</v>
+        <v>378</v>
       </c>
       <c r="E73" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="D74" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E74" t="s">
-        <v>389</v>
+        <v>329</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>318</v>
+        <v>379</v>
       </c>
       <c r="C75" t="s">
-        <v>317</v>
+        <v>380</v>
       </c>
       <c r="D75" t="s">
-        <v>319</v>
+        <v>381</v>
       </c>
       <c r="E75" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C76" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="D76" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="D77" t="s">
-        <v>263</v>
+        <v>68</v>
       </c>
       <c r="E77" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="C78" t="s">
-        <v>194</v>
+        <v>384</v>
       </c>
       <c r="D78" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="E78" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>184</v>
+        <v>262</v>
       </c>
       <c r="C79" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="D79" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E79" t="s">
-        <v>185</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="D80" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="E80" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="C81" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="D81" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C82" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="D82" t="s">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="E82" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C83" t="s">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="D83" t="s">
-        <v>271</v>
+        <v>386</v>
       </c>
       <c r="E83" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>322</v>
+        <v>168</v>
       </c>
       <c r="C84" t="s">
-        <v>324</v>
+        <v>178</v>
       </c>
       <c r="D84" t="s">
-        <v>383</v>
+        <v>179</v>
       </c>
       <c r="E84" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>381</v>
+        <v>229</v>
       </c>
       <c r="C85" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="D85" t="s">
-        <v>382</v>
+        <v>230</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="C86" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="D86" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="E86" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="C87" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="D87" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="E87" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>326</v>
+        <v>105</v>
       </c>
       <c r="D88" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E88" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>368</v>
+        <v>270</v>
       </c>
       <c r="C89" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>369</v>
+        <v>271</v>
       </c>
       <c r="E89" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C90" t="s">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="D90" t="s">
-        <v>272</v>
+        <v>135</v>
       </c>
       <c r="E90" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="C91" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D91" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C92" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="D92" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E92" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="C93" t="s">
-        <v>155</v>
+        <v>389</v>
       </c>
       <c r="D93" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="E93" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>345</v>
+        <v>175</v>
       </c>
       <c r="C94" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="D94" t="s">
-        <v>346</v>
+        <v>176</v>
       </c>
       <c r="E94" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C95" t="s">
-        <v>236</v>
+        <v>73</v>
       </c>
       <c r="D95" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E95" t="s">
-        <v>147</v>
+        <v>356</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C96" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="D96" t="s">
-        <v>323</v>
+        <v>121</v>
       </c>
       <c r="E96" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C97" t="s">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="D97" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="E97" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>198</v>
+        <v>274</v>
       </c>
       <c r="C98" t="s">
-        <v>197</v>
+        <v>273</v>
       </c>
       <c r="D98" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E98" t="s">
-        <v>147</v>
+        <v>356</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>277</v>
+        <v>117</v>
       </c>
       <c r="C99" t="s">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c r="D99" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="E99" t="s">
-        <v>147</v>
+        <v>356</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C100" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="D100" t="s">
-        <v>362</v>
+        <v>288</v>
       </c>
       <c r="E100" t="s">
-        <v>363</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="C101" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D101" t="s">
-        <v>199</v>
+        <v>393</v>
       </c>
       <c r="E101" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="C102" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D102" t="s">
-        <v>226</v>
+        <v>286</v>
       </c>
       <c r="E102" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>340</v>
+        <v>394</v>
       </c>
       <c r="C103" t="s">
-        <v>339</v>
+        <v>395</v>
       </c>
       <c r="D103" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E103" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>322</v>
+        <v>168</v>
       </c>
       <c r="C104" t="s">
-        <v>321</v>
+        <v>167</v>
       </c>
       <c r="D104" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E104" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>156</v>
+        <v>396</v>
       </c>
       <c r="C105" t="s">
-        <v>155</v>
+        <v>389</v>
       </c>
       <c r="D105" t="s">
-        <v>157</v>
+        <v>397</v>
       </c>
       <c r="E105" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C106" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D106" t="s">
-        <v>212</v>
+        <v>399</v>
       </c>
       <c r="E106" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="C107" t="s">
-        <v>317</v>
+        <v>380</v>
       </c>
       <c r="D107" t="s">
-        <v>348</v>
+        <v>401</v>
       </c>
       <c r="E107" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>153</v>
+        <v>402</v>
       </c>
       <c r="C108" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D108" t="s">
-        <v>153</v>
+        <v>402</v>
       </c>
       <c r="E108" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="C109" t="s">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c r="D109" t="s">
-        <v>361</v>
+        <v>219</v>
       </c>
       <c r="E109" t="s">
-        <v>147</v>
+        <v>356</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>169</v>
+        <v>403</v>
       </c>
       <c r="C110" t="s">
-        <v>168</v>
+        <v>404</v>
       </c>
       <c r="D110" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="E110" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C111" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D111" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E111" t="s">
-        <v>265</v>
+        <v>330</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="C112" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="D112" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="E112" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>351</v>
+        <v>408</v>
       </c>
       <c r="C113" t="s">
-        <v>350</v>
+        <v>409</v>
       </c>
       <c r="D113" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E113" t="s">
-        <v>233</v>
+        <v>410</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="C114" t="s">
-        <v>295</v>
+        <v>411</v>
       </c>
       <c r="D114" t="s">
-        <v>296</v>
+        <v>412</v>
       </c>
       <c r="E114" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>307</v>
+        <v>90</v>
       </c>
       <c r="C115" t="s">
-        <v>306</v>
+        <v>89</v>
       </c>
       <c r="D115" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E115" t="s">
-        <v>285</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C116" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D116" t="s">
-        <v>217</v>
+        <v>314</v>
       </c>
       <c r="E116" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="C117" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D117" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="E117" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="C118" t="s">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c r="D118" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="E118" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>238</v>
+        <v>159</v>
       </c>
       <c r="C119" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D119" t="s">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="E119" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="C120" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D120" t="s">
-        <v>252</v>
+        <v>82</v>
       </c>
       <c r="E120" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>253</v>
+        <v>153</v>
       </c>
       <c r="C121" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D121" t="s">
-        <v>254</v>
+        <v>154</v>
       </c>
       <c r="E121" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="C122" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D122" t="s">
-        <v>256</v>
+        <v>156</v>
       </c>
       <c r="E122" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="C123" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D123" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="E123" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="C124" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="D124" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E124" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="C125" t="s">
-        <v>194</v>
+        <v>384</v>
       </c>
       <c r="D125" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="E125" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C126" t="s">
-        <v>311</v>
+        <v>415</v>
       </c>
       <c r="D126" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E126" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C127" t="s">
-        <v>264</v>
+        <v>416</v>
       </c>
       <c r="D127" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E127" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C128" t="s">
-        <v>310</v>
+        <v>59</v>
       </c>
       <c r="D128" t="s">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="E128" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>245</v>
+        <v>417</v>
       </c>
       <c r="C129" t="s">
-        <v>244</v>
+        <v>418</v>
       </c>
       <c r="D129" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E129" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="C130" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="D130" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="E130" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C131" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D131" t="s">
-        <v>208</v>
+        <v>419</v>
       </c>
       <c r="E131" t="s">
-        <v>147</v>
+        <v>356</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C132" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="D132" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="E132" t="s">
-        <v>406</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="C133" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="D133" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="E133" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>206</v>
+        <v>420</v>
       </c>
       <c r="C134" t="s">
-        <v>205</v>
+        <v>421</v>
       </c>
       <c r="D134" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E134" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
-        <v>385</v>
+        <v>187</v>
       </c>
       <c r="C135" t="s">
-        <v>384</v>
+        <v>186</v>
       </c>
       <c r="D135" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E135" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="C136" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="D136" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E136" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="C137" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="D137" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E137" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
-        <v>301</v>
+        <v>427</v>
       </c>
       <c r="C138" t="s">
-        <v>222</v>
+        <v>282</v>
       </c>
       <c r="D138" t="s">
-        <v>302</v>
+        <v>428</v>
       </c>
       <c r="E138" t="s">
-        <v>216</v>
+        <v>83</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C139" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D139" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E139" t="s">
-        <v>237</v>
+        <v>302</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>299</v>
+        <v>429</v>
       </c>
       <c r="C140" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D140" t="s">
-        <v>300</v>
+        <v>430</v>
       </c>
       <c r="E140" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>337</v>
+        <v>431</v>
       </c>
       <c r="C141" t="s">
-        <v>222</v>
+        <v>282</v>
       </c>
       <c r="D141" t="s">
-        <v>338</v>
+        <v>432</v>
       </c>
       <c r="E141" t="s">
-        <v>265</v>
+        <v>330</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="C142" t="s">
-        <v>286</v>
+        <v>226</v>
       </c>
       <c r="D142" t="s">
-        <v>287</v>
+        <v>228</v>
       </c>
       <c r="E142" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C143" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="D143" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="E143" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
-        <v>334</v>
+        <v>433</v>
       </c>
       <c r="C144" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D144" t="s">
-        <v>334</v>
+        <v>433</v>
       </c>
       <c r="E144" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C145" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="D145" t="s">
-        <v>375</v>
+        <v>434</v>
       </c>
       <c r="E145" t="s">
-        <v>376</v>
+        <v>312</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C146" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="D146" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E146" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="C147" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="D147" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E147" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="C148" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D148" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="E148" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="C149" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D149" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="E149" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
-        <v>195</v>
+        <v>435</v>
       </c>
       <c r="C150" t="s">
-        <v>194</v>
+        <v>384</v>
       </c>
       <c r="D150" t="s">
-        <v>196</v>
+        <v>436</v>
       </c>
       <c r="E150" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C151" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="D151" t="s">
-        <v>164</v>
+        <v>437</v>
       </c>
       <c r="E151" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C152" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D152" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E152" t="s">
-        <v>103</v>
+        <v>357</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C153" t="s">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="D153" t="s">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="E153" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
-        <v>303</v>
+        <v>439</v>
       </c>
       <c r="C154" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D154" t="s">
-        <v>303</v>
+        <v>439</v>
       </c>
       <c r="E154" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C155" t="s">
-        <v>324</v>
+        <v>178</v>
       </c>
       <c r="D155" t="s">
-        <v>325</v>
+        <v>207</v>
       </c>
       <c r="E155" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C156" t="s">
-        <v>331</v>
+        <v>239</v>
       </c>
       <c r="D156" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E156" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
-        <v>327</v>
+        <v>441</v>
       </c>
       <c r="C157" t="s">
-        <v>155</v>
+        <v>389</v>
       </c>
       <c r="D157" t="s">
-        <v>328</v>
+        <v>442</v>
       </c>
       <c r="E157" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
-        <v>329</v>
+        <v>443</v>
       </c>
       <c r="C158" t="s">
-        <v>155</v>
+        <v>389</v>
       </c>
       <c r="D158" t="s">
-        <v>330</v>
+        <v>444</v>
       </c>
       <c r="E158" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
-        <v>342</v>
+        <v>445</v>
       </c>
       <c r="C159" t="s">
-        <v>341</v>
+        <v>446</v>
       </c>
       <c r="D159" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E159" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
-        <v>246</v>
+        <v>323</v>
       </c>
       <c r="C160" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="D160" t="s">
-        <v>247</v>
+        <v>324</v>
       </c>
       <c r="E160" t="s">
-        <v>411</v>
+        <v>325</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
-        <v>297</v>
+        <v>447</v>
       </c>
       <c r="C161" t="s">
-        <v>355</v>
+        <v>448</v>
       </c>
       <c r="D161" t="s">
-        <v>356</v>
+        <v>449</v>
       </c>
       <c r="E161" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
-        <v>283</v>
+        <v>150</v>
       </c>
       <c r="C162" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="D162" t="s">
-        <v>284</v>
+        <v>151</v>
       </c>
       <c r="E162" t="s">
-        <v>285</v>
+        <v>91</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
-        <v>188</v>
+        <v>450</v>
       </c>
       <c r="C163" t="s">
-        <v>187</v>
+        <v>451</v>
       </c>
       <c r="D163" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E163" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="C164" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="D164" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E164" t="s">
-        <v>147</v>
+        <v>356</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
-        <v>179</v>
+        <v>452</v>
       </c>
       <c r="C165" t="s">
-        <v>178</v>
+        <v>371</v>
       </c>
       <c r="D165" t="s">
-        <v>180</v>
+        <v>453</v>
       </c>
       <c r="E165" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
-        <v>297</v>
+        <v>447</v>
       </c>
       <c r="C166" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="D166" t="s">
-        <v>298</v>
+        <v>454</v>
       </c>
       <c r="E166" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
-        <v>249</v>
+        <v>455</v>
       </c>
       <c r="C167" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="D167" t="s">
-        <v>250</v>
+        <v>456</v>
       </c>
       <c r="E167" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C168" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="D168" t="s">
-        <v>232</v>
+        <v>305</v>
       </c>
       <c r="E168" t="s">
-        <v>233</v>
+        <v>410</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C169" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="D169" t="s">
-        <v>182</v>
+        <v>457</v>
       </c>
       <c r="E169" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
-        <v>49</v>
+        <v>342</v>
       </c>
       <c r="C170" t="s">
-        <v>201</v>
+        <v>458</v>
       </c>
       <c r="D170" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E170" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C171" t="s">
-        <v>172</v>
+        <v>459</v>
       </c>
       <c r="D171" t="s">
-        <v>173</v>
+        <v>460</v>
       </c>
       <c r="E171" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
-        <v>313</v>
+        <v>462</v>
       </c>
       <c r="C172" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="D172" t="s">
-        <v>314</v>
+        <v>463</v>
       </c>
       <c r="E172" t="s">
-        <v>392</v>
+        <v>341</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C173" t="s">
-        <v>273</v>
+        <v>464</v>
       </c>
       <c r="D173" t="s">
-        <v>274</v>
+        <v>465</v>
       </c>
       <c r="E173" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
-        <v>241</v>
+        <v>467</v>
       </c>
       <c r="C174" t="s">
-        <v>240</v>
+        <v>468</v>
       </c>
       <c r="D174" t="s">
-        <v>242</v>
+        <v>469</v>
       </c>
       <c r="E174" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C175" t="s">
-        <v>202</v>
+        <v>470</v>
       </c>
       <c r="D175" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E175" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
-        <v>192</v>
+        <v>471</v>
       </c>
       <c r="C176" t="s">
-        <v>191</v>
+        <v>472</v>
       </c>
       <c r="D176" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E176" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="C177" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="D177" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="E177" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C178" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D178" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E178">
         <v>13</v>
@@ -4315,13 +4495,13 @@
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
+        <v>24</v>
+      </c>
+      <c r="C179" t="s">
+        <v>127</v>
+      </c>
+      <c r="D179" t="s">
         <v>25</v>
-      </c>
-      <c r="C179" t="s">
-        <v>213</v>
-      </c>
-      <c r="D179" t="s">
-        <v>26</v>
       </c>
       <c r="E179">
         <v>5</v>
@@ -4329,13 +4509,13 @@
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
-        <v>349</v>
+        <v>473</v>
       </c>
       <c r="C180" t="s">
-        <v>168</v>
+        <v>404</v>
       </c>
       <c r="D180" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="E180">
         <v>9.1999999999999993</v>
@@ -4343,16 +4523,562 @@
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="C181" t="s">
-        <v>178</v>
+        <v>371</v>
       </c>
       <c r="D181" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
       <c r="E181">
         <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
+        <v>106</v>
+      </c>
+      <c r="C182" t="s">
+        <v>79</v>
+      </c>
+      <c r="D182" t="s">
+        <v>107</v>
+      </c>
+      <c r="E182">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
+        <v>310</v>
+      </c>
+      <c r="C183" t="s">
+        <v>309</v>
+      </c>
+      <c r="D183" t="s">
+        <v>311</v>
+      </c>
+      <c r="E183">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>27</v>
+      </c>
+      <c r="C184" t="s">
+        <v>224</v>
+      </c>
+      <c r="D184" t="s">
+        <v>225</v>
+      </c>
+      <c r="E184">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B185" t="s">
+        <v>240</v>
+      </c>
+      <c r="C185" t="s">
+        <v>182</v>
+      </c>
+      <c r="D185" t="s">
+        <v>241</v>
+      </c>
+      <c r="E185">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B186" t="s">
+        <v>27</v>
+      </c>
+      <c r="C186" t="s">
+        <v>316</v>
+      </c>
+      <c r="D186" t="s">
+        <v>19</v>
+      </c>
+      <c r="E186">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>119</v>
+      </c>
+      <c r="C187" t="s">
+        <v>100</v>
+      </c>
+      <c r="D187" t="s">
+        <v>120</v>
+      </c>
+      <c r="E187">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B188" t="s">
+        <v>27</v>
+      </c>
+      <c r="C188" t="s">
+        <v>200</v>
+      </c>
+      <c r="D188" t="s">
+        <v>322</v>
+      </c>
+      <c r="E188">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>75</v>
+      </c>
+      <c r="C189" t="s">
+        <v>74</v>
+      </c>
+      <c r="D189" t="s">
+        <v>76</v>
+      </c>
+      <c r="E189">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
+        <v>27</v>
+      </c>
+      <c r="C190" t="s">
+        <v>212</v>
+      </c>
+      <c r="D190" t="s">
+        <v>213</v>
+      </c>
+      <c r="E190">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
+        <v>251</v>
+      </c>
+      <c r="C191" t="s">
+        <v>250</v>
+      </c>
+      <c r="D191" t="s">
+        <v>252</v>
+      </c>
+      <c r="E191">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
+        <v>257</v>
+      </c>
+      <c r="C192" t="s">
+        <v>56</v>
+      </c>
+      <c r="D192" t="s">
+        <v>258</v>
+      </c>
+      <c r="E192">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
+        <v>27</v>
+      </c>
+      <c r="C193" t="s">
+        <v>280</v>
+      </c>
+      <c r="D193" t="s">
+        <v>19</v>
+      </c>
+      <c r="E193">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
+        <v>57</v>
+      </c>
+      <c r="C194" t="s">
+        <v>56</v>
+      </c>
+      <c r="D194" t="s">
+        <v>58</v>
+      </c>
+      <c r="E194">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
+        <v>27</v>
+      </c>
+      <c r="C195" t="s">
+        <v>41</v>
+      </c>
+      <c r="D195" t="s">
+        <v>108</v>
+      </c>
+      <c r="E195">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
+        <v>125</v>
+      </c>
+      <c r="C196" t="s">
+        <v>124</v>
+      </c>
+      <c r="D196" t="s">
+        <v>126</v>
+      </c>
+      <c r="E196">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
+        <v>27</v>
+      </c>
+      <c r="C197" t="s">
+        <v>128</v>
+      </c>
+      <c r="D197" t="s">
+        <v>19</v>
+      </c>
+      <c r="E197">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
+        <v>131</v>
+      </c>
+      <c r="C198" t="s">
+        <v>130</v>
+      </c>
+      <c r="D198" t="s">
+        <v>19</v>
+      </c>
+      <c r="E198">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B199" t="s">
+        <v>199</v>
+      </c>
+      <c r="C199" t="s">
+        <v>198</v>
+      </c>
+      <c r="D199" t="s">
+        <v>19</v>
+      </c>
+      <c r="E199">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B200" t="s">
+        <v>27</v>
+      </c>
+      <c r="C200" t="s">
+        <v>87</v>
+      </c>
+      <c r="D200" t="s">
+        <v>19</v>
+      </c>
+      <c r="E200">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B201" t="s">
+        <v>27</v>
+      </c>
+      <c r="C201" t="s">
+        <v>169</v>
+      </c>
+      <c r="D201" t="s">
+        <v>170</v>
+      </c>
+      <c r="E201">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B202" t="s">
+        <v>27</v>
+      </c>
+      <c r="C202" t="s">
+        <v>259</v>
+      </c>
+      <c r="D202" t="s">
+        <v>260</v>
+      </c>
+      <c r="E202">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B203" t="s">
+        <v>301</v>
+      </c>
+      <c r="C203" t="s">
+        <v>300</v>
+      </c>
+      <c r="D203" t="s">
+        <v>19</v>
+      </c>
+      <c r="E203">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B204" t="s">
+        <v>27</v>
+      </c>
+      <c r="C204" t="s">
+        <v>320</v>
+      </c>
+      <c r="D204" t="s">
+        <v>19</v>
+      </c>
+      <c r="E204">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
+        <v>27</v>
+      </c>
+      <c r="C205" t="s">
+        <v>269</v>
+      </c>
+      <c r="D205" t="s">
+        <v>19</v>
+      </c>
+      <c r="E205">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
+        <v>31</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>32</v>
+      </c>
+      <c r="E206">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B207" t="s">
+        <v>27</v>
+      </c>
+      <c r="C207" t="s">
+        <v>41</v>
+      </c>
+      <c r="D207" t="s">
+        <v>42</v>
+      </c>
+      <c r="E207">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B208" t="s">
+        <v>222</v>
+      </c>
+      <c r="C208" t="s">
+        <v>182</v>
+      </c>
+      <c r="D208" t="s">
+        <v>223</v>
+      </c>
+      <c r="E208">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B209" t="s">
+        <v>27</v>
+      </c>
+      <c r="C209" t="s">
+        <v>41</v>
+      </c>
+      <c r="D209" t="s">
+        <v>112</v>
+      </c>
+      <c r="E209">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B210" t="s">
+        <v>189</v>
+      </c>
+      <c r="C210" t="s">
+        <v>188</v>
+      </c>
+      <c r="D210" t="s">
+        <v>19</v>
+      </c>
+      <c r="E210">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B211" t="s">
+        <v>27</v>
+      </c>
+      <c r="C211" t="s">
+        <v>245</v>
+      </c>
+      <c r="D211" t="s">
+        <v>19</v>
+      </c>
+      <c r="E211">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
+        <v>27</v>
+      </c>
+      <c r="C212" t="s">
+        <v>193</v>
+      </c>
+      <c r="D212" t="s">
+        <v>194</v>
+      </c>
+      <c r="E212">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B213" t="s">
+        <v>142</v>
+      </c>
+      <c r="C213" t="s">
+        <v>141</v>
+      </c>
+      <c r="D213" t="s">
+        <v>142</v>
+      </c>
+      <c r="E213">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B214" t="s">
+        <v>215</v>
+      </c>
+      <c r="C214" t="s">
+        <v>214</v>
+      </c>
+      <c r="D214" t="s">
+        <v>216</v>
+      </c>
+      <c r="E214">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B215" t="s">
+        <v>27</v>
+      </c>
+      <c r="C215" t="s">
+        <v>41</v>
+      </c>
+      <c r="D215" t="s">
+        <v>277</v>
+      </c>
+      <c r="E215">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B216" t="s">
+        <v>236</v>
+      </c>
+      <c r="C216" t="s">
+        <v>235</v>
+      </c>
+      <c r="D216" t="s">
+        <v>19</v>
+      </c>
+      <c r="E216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B217" t="s">
+        <v>183</v>
+      </c>
+      <c r="C217" t="s">
+        <v>182</v>
+      </c>
+      <c r="D217" t="s">
+        <v>184</v>
+      </c>
+      <c r="E217">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B218" t="s">
+        <v>173</v>
+      </c>
+      <c r="C218" t="s">
+        <v>172</v>
+      </c>
+      <c r="D218" t="s">
+        <v>19</v>
+      </c>
+      <c r="E218">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B219" t="s">
+        <v>27</v>
+      </c>
+      <c r="C219" t="s">
+        <v>200</v>
+      </c>
+      <c r="D219" t="s">
+        <v>242</v>
+      </c>
+      <c r="E219">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B220" t="s">
+        <v>21</v>
+      </c>
+      <c r="C220" t="s">
+        <v>182</v>
+      </c>
+      <c r="D220" t="s">
+        <v>190</v>
+      </c>
+      <c r="E220">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
